--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>2445.1</v>
+      </c>
+      <c r="C2" t="n">
         <v>2456</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2539.5</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>396.35</v>
+      </c>
+      <c r="C3" t="n">
         <v>399.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>395.85</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1469.85</v>
+      </c>
+      <c r="C4" t="n">
         <v>1482.05</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1504</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>6981.5</v>
+      </c>
+      <c r="C5" t="n">
         <v>7018.05</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7060.6</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="C6" t="n">
         <v>227.75</v>
-      </c>
-      <c r="C6" t="n">
-        <v>226.85</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>186.75</v>
+      </c>
+      <c r="C7" t="n">
         <v>188.75</v>
-      </c>
-      <c r="C7" t="n">
-        <v>192.65</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>44074.4</v>
+      </c>
+      <c r="C8" t="n">
         <v>44234.05</v>
-      </c>
-      <c r="C8" t="n">
-        <v>44464.35</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>478.05</v>
+      </c>
+      <c r="C9" t="n">
         <v>470.95</v>
-      </c>
-      <c r="C9" t="n">
-        <v>482</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>3327.2</v>
+      </c>
+      <c r="C10" t="n">
         <v>3338.7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3389.2</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="C11" t="n">
         <v>133</v>
-      </c>
-      <c r="C11" t="n">
-        <v>133.2</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>1177.15</v>
+      </c>
+      <c r="C12" t="n">
         <v>1171</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1171.45</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>1380.7</v>
+      </c>
+      <c r="C13" t="n">
         <v>1388.9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1397.25</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>647.95</v>
+      </c>
+      <c r="C14" t="n">
         <v>662.25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>698.2</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>422.15</v>
+      </c>
+      <c r="C15" t="n">
         <v>422.05</v>
-      </c>
-      <c r="C15" t="n">
-        <v>424.95</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>1570.6</v>
+      </c>
+      <c r="C16" t="n">
         <v>1546.85</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1546.45</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>277.4</v>
+      </c>
+      <c r="C17" t="n">
         <v>280.9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>283.05</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>19484.55</v>
+      </c>
+      <c r="C18" t="n">
         <v>19478.35</v>
-      </c>
-      <c r="C18" t="n">
-        <v>19504.35</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>565.35</v>
+      </c>
+      <c r="C19" t="n">
         <v>560.8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>574.15</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>549.15</v>
+      </c>
+      <c r="C20" t="n">
         <v>550.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>545.05</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>618.75</v>
+      </c>
+      <c r="C21" t="n">
         <v>607.35</v>
-      </c>
-      <c r="C21" t="n">
-        <v>611.8</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>234.95</v>
+      </c>
+      <c r="C22" t="n">
         <v>231.15</v>
-      </c>
-      <c r="C22" t="n">
-        <v>236.2</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>115.95</v>
+      </c>
+      <c r="C23" t="n">
         <v>118.15</v>
-      </c>
-      <c r="C23" t="n">
-        <v>120.3</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2445.1</v>
+        <v>2577.4</v>
       </c>
       <c r="C2" t="n">
-        <v>2456</v>
+        <v>2479.7</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>396.35</v>
+        <v>391.65</v>
       </c>
       <c r="C3" t="n">
-        <v>399.5</v>
+        <v>391.7</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1469.85</v>
+        <v>1460.15</v>
       </c>
       <c r="C4" t="n">
-        <v>1482.05</v>
+        <v>1476.85</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6981.5</v>
+        <v>6862.1</v>
       </c>
       <c r="C5" t="n">
-        <v>7018.05</v>
+        <v>6923.25</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224.6</v>
+        <v>229.45</v>
       </c>
       <c r="C6" t="n">
-        <v>227.75</v>
+        <v>229.55</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186.75</v>
+        <v>191.7</v>
       </c>
       <c r="C7" t="n">
-        <v>188.75</v>
+        <v>189.9</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44074.4</v>
+        <v>43964.7</v>
       </c>
       <c r="C8" t="n">
-        <v>44234.05</v>
+        <v>44047.4</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>478.05</v>
+        <v>474.05</v>
       </c>
       <c r="C9" t="n">
-        <v>470.95</v>
+        <v>477.7</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3327.2</v>
+        <v>3349.6</v>
       </c>
       <c r="C10" t="n">
-        <v>3338.7</v>
+        <v>3298.45</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>132.2</v>
+        <v>134.15</v>
       </c>
       <c r="C11" t="n">
-        <v>133</v>
+        <v>134.6</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1177.15</v>
+        <v>1173.7</v>
       </c>
       <c r="C12" t="n">
-        <v>1171</v>
+        <v>1176.7</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1380.7</v>
+        <v>1371.7</v>
       </c>
       <c r="C13" t="n">
-        <v>1388.9</v>
+        <v>1374.3</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>647.95</v>
+        <v>641.05</v>
       </c>
       <c r="C14" t="n">
-        <v>662.25</v>
+        <v>645.2</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>422.15</v>
+        <v>413.75</v>
       </c>
       <c r="C15" t="n">
-        <v>422.05</v>
+        <v>424.35</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1570.6</v>
+        <v>1552.65</v>
       </c>
       <c r="C16" t="n">
-        <v>1546.85</v>
+        <v>1573.5</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>277.4</v>
+        <v>275.05</v>
       </c>
       <c r="C17" t="n">
-        <v>280.9</v>
+        <v>279.5</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19484.55</v>
+        <v>19331.5</v>
       </c>
       <c r="C18" t="n">
-        <v>19478.35</v>
+        <v>19393.9</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>565.35</v>
+        <v>572.95</v>
       </c>
       <c r="C19" t="n">
-        <v>560.8</v>
+        <v>572.15</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>549.15</v>
+        <v>549.3</v>
       </c>
       <c r="C20" t="n">
-        <v>550.5</v>
+        <v>552.55</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>618.75</v>
+        <v>615.8</v>
       </c>
       <c r="C21" t="n">
-        <v>607.35</v>
+        <v>613.75</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.95</v>
+        <v>230.1</v>
       </c>
       <c r="C22" t="n">
-        <v>231.15</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115.95</v>
+        <v>115.8</v>
       </c>
       <c r="C23" t="n">
-        <v>118.15</v>
+        <v>116.05</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2577.4</v>
+        <v>2698.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2479.7</v>
+        <v>2639.75</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>391.65</v>
+        <v>393.95</v>
       </c>
       <c r="C3" t="n">
-        <v>391.7</v>
+        <v>398.8</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1460.15</v>
+        <v>1467.8</v>
       </c>
       <c r="C4" t="n">
-        <v>1476.85</v>
+        <v>1478.3</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6862.1</v>
+        <v>7069.95</v>
       </c>
       <c r="C5" t="n">
-        <v>6923.25</v>
+        <v>7048.2</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>229.45</v>
+        <v>232.1</v>
       </c>
       <c r="C6" t="n">
-        <v>229.55</v>
+        <v>230.55</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.7</v>
+        <v>190.25</v>
       </c>
       <c r="C7" t="n">
-        <v>189.9</v>
+        <v>190.9</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43964.7</v>
+        <v>44088.05</v>
       </c>
       <c r="C8" t="n">
-        <v>44047.4</v>
+        <v>44114.3</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>474.05</v>
+        <v>480.35</v>
       </c>
       <c r="C9" t="n">
-        <v>477.7</v>
+        <v>481.85</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3349.6</v>
+        <v>3343.4</v>
       </c>
       <c r="C10" t="n">
-        <v>3298.45</v>
+        <v>3365.55</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>134.15</v>
+        <v>136.05</v>
       </c>
       <c r="C11" t="n">
-        <v>134.6</v>
+        <v>134.25</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1173.7</v>
+        <v>1179.5</v>
       </c>
       <c r="C12" t="n">
-        <v>1176.7</v>
+        <v>1179.25</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1371.7</v>
+        <v>1401.15</v>
       </c>
       <c r="C13" t="n">
-        <v>1374.3</v>
+        <v>1397.8</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>641.05</v>
+        <v>655.85</v>
       </c>
       <c r="C14" t="n">
-        <v>645.2</v>
+        <v>653.6</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>413.75</v>
+        <v>422.9</v>
       </c>
       <c r="C15" t="n">
-        <v>424.35</v>
+        <v>420.55</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1552.65</v>
+        <v>1550.5</v>
       </c>
       <c r="C16" t="n">
-        <v>1573.5</v>
+        <v>1538.55</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>275.05</v>
+        <v>288.65</v>
       </c>
       <c r="C17" t="n">
-        <v>279.5</v>
+        <v>277.45</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19331.5</v>
+        <v>19386.3</v>
       </c>
       <c r="C18" t="n">
-        <v>19393.9</v>
+        <v>19399.55</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>572.95</v>
+        <v>568.5</v>
       </c>
       <c r="C19" t="n">
-        <v>572.15</v>
+        <v>571.7</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>549.3</v>
+        <v>542</v>
       </c>
       <c r="C20" t="n">
-        <v>552.55</v>
+        <v>553.55</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>615.8</v>
+        <v>620.2</v>
       </c>
       <c r="C21" t="n">
-        <v>613.75</v>
+        <v>620.5</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>230.1</v>
+        <v>243.5</v>
       </c>
       <c r="C22" t="n">
-        <v>232.5</v>
+        <v>239.35</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115.8</v>
+        <v>117.55</v>
       </c>
       <c r="C23" t="n">
-        <v>116.05</v>
+        <v>116.9</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2698.05</v>
+        <v>2539.55</v>
       </c>
       <c r="C2" t="n">
-        <v>2639.75</v>
+        <v>2530.3</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>393.95</v>
+        <v>395.6</v>
       </c>
       <c r="C3" t="n">
-        <v>398.8</v>
+        <v>393.35</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1467.8</v>
+        <v>1468.6</v>
       </c>
       <c r="C4" t="n">
-        <v>1478.3</v>
+        <v>1470.1</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7069.95</v>
+        <v>7137.45</v>
       </c>
       <c r="C5" t="n">
-        <v>7048.2</v>
+        <v>7116.45</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>232.1</v>
+        <v>234.9</v>
       </c>
       <c r="C6" t="n">
-        <v>230.55</v>
+        <v>237.25</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.25</v>
+        <v>191.85</v>
       </c>
       <c r="C7" t="n">
-        <v>190.9</v>
+        <v>193.35</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44088.05</v>
+        <v>44559.1</v>
       </c>
       <c r="C8" t="n">
-        <v>44114.3</v>
+        <v>44519.45</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>480.35</v>
+        <v>483.55</v>
       </c>
       <c r="C9" t="n">
-        <v>481.85</v>
+        <v>480.7</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3343.4</v>
+        <v>3341.65</v>
       </c>
       <c r="C10" t="n">
-        <v>3365.55</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>136.05</v>
+        <v>140.7</v>
       </c>
       <c r="C11" t="n">
-        <v>134.25</v>
+        <v>141.7</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1179.5</v>
+        <v>1171.25</v>
       </c>
       <c r="C12" t="n">
-        <v>1179.25</v>
+        <v>1182.5</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1401.15</v>
+        <v>1425.15</v>
       </c>
       <c r="C13" t="n">
-        <v>1397.8</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>655.85</v>
+        <v>649.1</v>
       </c>
       <c r="C14" t="n">
-        <v>653.6</v>
+        <v>660.75</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>422.9</v>
+        <v>421.55</v>
       </c>
       <c r="C15" t="n">
-        <v>420.55</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1550.5</v>
+        <v>1542.2</v>
       </c>
       <c r="C16" t="n">
-        <v>1538.55</v>
+        <v>1542.45</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.65</v>
+        <v>304.05</v>
       </c>
       <c r="C17" t="n">
-        <v>277.45</v>
+        <v>298.05</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19386.3</v>
+        <v>19395.6</v>
       </c>
       <c r="C18" t="n">
-        <v>19399.55</v>
+        <v>19430.9</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>568.5</v>
+        <v>576.95</v>
       </c>
       <c r="C19" t="n">
-        <v>571.7</v>
+        <v>576.9</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>542</v>
+        <v>582.55</v>
       </c>
       <c r="C20" t="n">
-        <v>553.55</v>
+        <v>568.25</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>620.2</v>
+        <v>610.95</v>
       </c>
       <c r="C21" t="n">
-        <v>620.5</v>
+        <v>613.9</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>243.5</v>
+        <v>249.75</v>
       </c>
       <c r="C22" t="n">
-        <v>239.35</v>
+        <v>245.6</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>117.55</v>
+        <v>118.25</v>
       </c>
       <c r="C23" t="n">
-        <v>116.9</v>
+        <v>118.95</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2539.55</v>
+        <v>2506.45</v>
       </c>
       <c r="C2" t="n">
-        <v>2530.3</v>
+        <v>2472.45</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>395.6</v>
+        <v>389.65</v>
       </c>
       <c r="C3" t="n">
-        <v>393.35</v>
+        <v>391.6</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1468.6</v>
+        <v>1503.45</v>
       </c>
       <c r="C4" t="n">
-        <v>1470.1</v>
+        <v>1499.9</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7137.45</v>
+        <v>7293.35</v>
       </c>
       <c r="C5" t="n">
-        <v>7116.45</v>
+        <v>7235.6</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="C6" t="n">
         <v>234.9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>237.25</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.85</v>
+        <v>191.15</v>
       </c>
       <c r="C7" t="n">
-        <v>193.35</v>
+        <v>190.15</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44559.1</v>
+        <v>44500.5</v>
       </c>
       <c r="C8" t="n">
-        <v>44519.45</v>
+        <v>44486.65</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>483.55</v>
+        <v>494</v>
       </c>
       <c r="C9" t="n">
-        <v>480.7</v>
+        <v>482.4</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3341.65</v>
+        <v>3355.35</v>
       </c>
       <c r="C10" t="n">
-        <v>3358</v>
+        <v>3348.35</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>140.7</v>
+        <v>144.45</v>
       </c>
       <c r="C11" t="n">
-        <v>141.7</v>
+        <v>143.9</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1171.25</v>
+        <v>1157.55</v>
       </c>
       <c r="C12" t="n">
-        <v>1182.5</v>
+        <v>1146.45</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1425.15</v>
+        <v>1400.15</v>
       </c>
       <c r="C13" t="n">
-        <v>1401</v>
+        <v>1409.45</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>649.1</v>
+        <v>676.3</v>
       </c>
       <c r="C14" t="n">
-        <v>660.75</v>
+        <v>655.85</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>421.55</v>
+        <v>423.3</v>
       </c>
       <c r="C15" t="n">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1542.2</v>
+        <v>1560.85</v>
       </c>
       <c r="C16" t="n">
-        <v>1542.45</v>
+        <v>1549.25</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>304.05</v>
+        <v>293.15</v>
       </c>
       <c r="C17" t="n">
-        <v>298.05</v>
+        <v>292.7</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19395.6</v>
+        <v>19337.1</v>
       </c>
       <c r="C18" t="n">
-        <v>19430.9</v>
+        <v>19321.3</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.95</v>
+        <v>574.85</v>
       </c>
       <c r="C19" t="n">
-        <v>576.9</v>
+        <v>572.85</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>582.55</v>
+        <v>604.2</v>
       </c>
       <c r="C20" t="n">
-        <v>568.25</v>
+        <v>602.4</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>610.95</v>
+        <v>607.15</v>
       </c>
       <c r="C21" t="n">
-        <v>613.9</v>
+        <v>602.4</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>249.75</v>
+        <v>246.9</v>
       </c>
       <c r="C22" t="n">
-        <v>245.6</v>
+        <v>244.95</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118.25</v>
+        <v>119.55</v>
       </c>
       <c r="C23" t="n">
-        <v>118.95</v>
+        <v>117.6</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2506.45</v>
+        <v>2450.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2472.45</v>
+        <v>2419.25</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>389.65</v>
+        <v>384.75</v>
       </c>
       <c r="C3" t="n">
-        <v>391.6</v>
+        <v>388.4</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1503.45</v>
+        <v>1514.5</v>
       </c>
       <c r="C4" t="n">
-        <v>1499.9</v>
+        <v>1488.9</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7293.35</v>
+        <v>7320.6</v>
       </c>
       <c r="C5" t="n">
-        <v>7235.6</v>
+        <v>7163</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>235.8</v>
+        <v>235.1</v>
       </c>
       <c r="C6" t="n">
-        <v>234.9</v>
+        <v>229.6</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.15</v>
+        <v>190.6</v>
       </c>
       <c r="C7" t="n">
-        <v>190.15</v>
+        <v>187.15</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44500.5</v>
+        <v>44601.5</v>
       </c>
       <c r="C8" t="n">
-        <v>44486.65</v>
+        <v>43989.15</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>494</v>
+        <v>503.25</v>
       </c>
       <c r="C9" t="n">
-        <v>482.4</v>
+        <v>504.1</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3355.35</v>
+        <v>3400.4</v>
       </c>
       <c r="C10" t="n">
-        <v>3348.35</v>
+        <v>3336.6</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>144.45</v>
+        <v>143.8</v>
       </c>
       <c r="C11" t="n">
-        <v>143.9</v>
+        <v>143.95</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1157.55</v>
+        <v>1185.8</v>
       </c>
       <c r="C12" t="n">
-        <v>1146.45</v>
+        <v>1172.15</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1400.15</v>
+        <v>1416.55</v>
       </c>
       <c r="C13" t="n">
-        <v>1409.45</v>
+        <v>1378.15</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>676.3</v>
+        <v>701.1</v>
       </c>
       <c r="C14" t="n">
-        <v>655.85</v>
+        <v>684.5</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>423.3</v>
+        <v>433.2</v>
       </c>
       <c r="C15" t="n">
-        <v>420</v>
+        <v>423.35</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1560.85</v>
+        <v>1591.95</v>
       </c>
       <c r="C16" t="n">
-        <v>1549.25</v>
+        <v>1575.4</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>293.15</v>
+        <v>299.15</v>
       </c>
       <c r="C17" t="n">
-        <v>292.7</v>
+        <v>297.65</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19337.1</v>
+        <v>19512.1</v>
       </c>
       <c r="C18" t="n">
-        <v>19321.3</v>
+        <v>19253.8</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>574.85</v>
+        <v>569.55</v>
       </c>
       <c r="C19" t="n">
-        <v>572.85</v>
+        <v>561.35</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>604.2</v>
+        <v>620.8</v>
       </c>
       <c r="C20" t="n">
-        <v>602.4</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>607.15</v>
+        <v>611.2</v>
       </c>
       <c r="C21" t="n">
-        <v>602.4</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>246.9</v>
+        <v>255.35</v>
       </c>
       <c r="C22" t="n">
-        <v>244.95</v>
+        <v>245.1</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>119.55</v>
+        <v>127.05</v>
       </c>
       <c r="C23" t="n">
-        <v>117.6</v>
+        <v>122.9</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2450.05</v>
+        <v>2496.5</v>
       </c>
       <c r="C2" t="n">
-        <v>2419.25</v>
+        <v>2494.05</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384.75</v>
+        <v>382.25</v>
       </c>
       <c r="C3" t="n">
-        <v>388.4</v>
+        <v>383.6</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1514.5</v>
+        <v>1518.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1488.9</v>
+        <v>1510.45</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7320.6</v>
+        <v>7387.8</v>
       </c>
       <c r="C5" t="n">
-        <v>7163</v>
+        <v>7345.1</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>235.1</v>
+        <v>234</v>
       </c>
       <c r="C6" t="n">
-        <v>229.6</v>
+        <v>234.65</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.6</v>
+        <v>195</v>
       </c>
       <c r="C7" t="n">
-        <v>187.15</v>
+        <v>195.8</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44601.5</v>
+        <v>44644.05</v>
       </c>
       <c r="C8" t="n">
-        <v>43989.15</v>
+        <v>44766.05</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>503.25</v>
+        <v>519</v>
       </c>
       <c r="C9" t="n">
-        <v>504.1</v>
+        <v>521.3</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3400.4</v>
+        <v>3391.3</v>
       </c>
       <c r="C10" t="n">
-        <v>3336.6</v>
+        <v>3403.45</v>
       </c>
     </row>
     <row r="11">
@@ -562,7 +562,7 @@
         <v>143.8</v>
       </c>
       <c r="C11" t="n">
-        <v>143.95</v>
+        <v>144.7</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1185.8</v>
+        <v>1235.85</v>
       </c>
       <c r="C12" t="n">
-        <v>1172.15</v>
+        <v>1235.55</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1416.55</v>
+        <v>1408.65</v>
       </c>
       <c r="C13" t="n">
-        <v>1378.15</v>
+        <v>1423.75</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>701.1</v>
+        <v>702.45</v>
       </c>
       <c r="C14" t="n">
-        <v>684.5</v>
+        <v>712.55</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>433.2</v>
+        <v>449.25</v>
       </c>
       <c r="C15" t="n">
-        <v>423.35</v>
+        <v>451.05</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1591.95</v>
+        <v>1577</v>
       </c>
       <c r="C16" t="n">
-        <v>1575.4</v>
+        <v>1571.15</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>299.15</v>
+        <v>294.35</v>
       </c>
       <c r="C17" t="n">
-        <v>297.65</v>
+        <v>292.65</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19512.1</v>
+        <v>19658.85</v>
       </c>
       <c r="C18" t="n">
-        <v>19253.8</v>
+        <v>19653.55</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.55</v>
+        <v>570.5</v>
       </c>
       <c r="C19" t="n">
-        <v>561.35</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>620.8</v>
+        <v>615.35</v>
       </c>
       <c r="C20" t="n">
-        <v>617</v>
+        <v>615.25</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.2</v>
+        <v>610.25</v>
       </c>
       <c r="C21" t="n">
-        <v>601</v>
+        <v>611.15</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>255.35</v>
+        <v>257.5</v>
       </c>
       <c r="C22" t="n">
-        <v>245.1</v>
+        <v>258.45</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>127.05</v>
+        <v>129.6</v>
       </c>
       <c r="C23" t="n">
-        <v>122.9</v>
+        <v>131.7</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2496.5</v>
+        <v>2519.3</v>
       </c>
       <c r="C2" t="n">
-        <v>2494.05</v>
+        <v>2509.5</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>382.25</v>
+        <v>381.65</v>
       </c>
       <c r="C3" t="n">
-        <v>383.6</v>
+        <v>384.3</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1518.2</v>
+        <v>1541</v>
       </c>
       <c r="C4" t="n">
-        <v>1510.45</v>
+        <v>1519.55</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7387.8</v>
+        <v>7410.65</v>
       </c>
       <c r="C5" t="n">
-        <v>7345.1</v>
+        <v>7363.2</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>234</v>
+        <v>243.4</v>
       </c>
       <c r="C6" t="n">
-        <v>234.65</v>
+        <v>238.5</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195</v>
+        <v>197.8</v>
       </c>
       <c r="C7" t="n">
-        <v>195.8</v>
+        <v>196.25</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44644.05</v>
+        <v>45319.65</v>
       </c>
       <c r="C8" t="n">
-        <v>44766.05</v>
+        <v>45045.15</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="C9" t="n">
-        <v>521.3</v>
+        <v>530.75</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3391.3</v>
+        <v>3370.9</v>
       </c>
       <c r="C10" t="n">
-        <v>3403.45</v>
+        <v>3402.45</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>143.8</v>
+        <v>147.5</v>
       </c>
       <c r="C11" t="n">
-        <v>144.7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1235.85</v>
+        <v>1262.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1235.55</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1408.65</v>
+        <v>1448.85</v>
       </c>
       <c r="C13" t="n">
-        <v>1423.75</v>
+        <v>1439.6</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>702.45</v>
+        <v>698.3</v>
       </c>
       <c r="C14" t="n">
-        <v>712.55</v>
+        <v>703.5</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>449.25</v>
+        <v>452.95</v>
       </c>
       <c r="C15" t="n">
-        <v>451.05</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1577</v>
+        <v>1567.55</v>
       </c>
       <c r="C16" t="n">
-        <v>1571.15</v>
+        <v>1565.75</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>294.35</v>
+        <v>301.65</v>
       </c>
       <c r="C17" t="n">
-        <v>292.65</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19658.85</v>
+        <v>19872.45</v>
       </c>
       <c r="C18" t="n">
-        <v>19653.55</v>
+        <v>19768.7</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>570.5</v>
+        <v>583.45</v>
       </c>
       <c r="C19" t="n">
-        <v>573</v>
+        <v>579.05</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>615.35</v>
+        <v>619.95</v>
       </c>
       <c r="C20" t="n">
-        <v>615.25</v>
+        <v>617.35</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>610.25</v>
+        <v>627.25</v>
       </c>
       <c r="C21" t="n">
-        <v>611.15</v>
+        <v>614.9</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>257.5</v>
+        <v>268.85</v>
       </c>
       <c r="C22" t="n">
-        <v>258.45</v>
+        <v>263.7</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>129.6</v>
+        <v>129.5</v>
       </c>
       <c r="C23" t="n">
-        <v>131.7</v>
+        <v>130.15</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2519.3</v>
+        <v>2540.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2509.5</v>
+        <v>2519.8</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>381.65</v>
+        <v>376.4</v>
       </c>
       <c r="C3" t="n">
-        <v>384.3</v>
+        <v>382.55</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1541</v>
+        <v>1538.1</v>
       </c>
       <c r="C4" t="n">
-        <v>1519.55</v>
+        <v>1550.9</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7410.65</v>
+        <v>7492.2</v>
       </c>
       <c r="C5" t="n">
-        <v>7363.2</v>
+        <v>7494.3</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>243.4</v>
+        <v>249.35</v>
       </c>
       <c r="C6" t="n">
-        <v>238.5</v>
+        <v>239.55</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>197.8</v>
+        <v>210.8</v>
       </c>
       <c r="C7" t="n">
-        <v>196.25</v>
+        <v>211.9</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45319.65</v>
+        <v>46288.05</v>
       </c>
       <c r="C8" t="n">
-        <v>45045.15</v>
+        <v>46113.65</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540</v>
+        <v>532.4</v>
       </c>
       <c r="C9" t="n">
-        <v>530.75</v>
+        <v>537.35</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3370.9</v>
+        <v>3427.2</v>
       </c>
       <c r="C10" t="n">
-        <v>3402.45</v>
+        <v>3381.4</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="C11" t="n">
         <v>147.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1262.05</v>
+        <v>1304.6</v>
       </c>
       <c r="C12" t="n">
-        <v>1254</v>
+        <v>1283.6</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1448.85</v>
+        <v>1450</v>
       </c>
       <c r="C13" t="n">
-        <v>1439.6</v>
+        <v>1458.25</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>698.3</v>
+        <v>711.45</v>
       </c>
       <c r="C14" t="n">
-        <v>703.5</v>
+        <v>711.05</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>452.95</v>
+        <v>458.75</v>
       </c>
       <c r="C15" t="n">
-        <v>451</v>
+        <v>461.75</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1567.55</v>
+        <v>1601.1</v>
       </c>
       <c r="C16" t="n">
-        <v>1565.75</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>301.65</v>
+        <v>300.95</v>
       </c>
       <c r="C17" t="n">
-        <v>299.9</v>
+        <v>300.15</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19872.45</v>
+        <v>20249.6</v>
       </c>
       <c r="C18" t="n">
-        <v>19768.7</v>
+        <v>20172</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>583.45</v>
+        <v>598.8</v>
       </c>
       <c r="C19" t="n">
-        <v>579.05</v>
+        <v>597.3</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>619.95</v>
+        <v>596.2</v>
       </c>
       <c r="C20" t="n">
-        <v>617.35</v>
+        <v>605.45</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>627.25</v>
+        <v>634.25</v>
       </c>
       <c r="C21" t="n">
-        <v>614.9</v>
+        <v>624.6</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.85</v>
+        <v>263.95</v>
       </c>
       <c r="C22" t="n">
-        <v>263.7</v>
+        <v>265.1</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>129.5</v>
+        <v>131.95</v>
       </c>
       <c r="C23" t="n">
-        <v>130.15</v>
+        <v>131.7</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2540.05</v>
+        <v>2393.75</v>
       </c>
       <c r="C2" t="n">
-        <v>2519.8</v>
+        <v>2402.2</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>376.4</v>
+        <v>383.95</v>
       </c>
       <c r="C3" t="n">
-        <v>382.55</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1538.1</v>
+        <v>1635.05</v>
       </c>
       <c r="C4" t="n">
-        <v>1550.9</v>
+        <v>1634.75</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7492.2</v>
+        <v>7769.2</v>
       </c>
       <c r="C5" t="n">
-        <v>7494.3</v>
+        <v>7841.55</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>249.35</v>
+        <v>225.5</v>
       </c>
       <c r="C6" t="n">
-        <v>239.55</v>
+        <v>229.15</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.8</v>
+        <v>202.3</v>
       </c>
       <c r="C7" t="n">
-        <v>211.9</v>
+        <v>205.15</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46288.05</v>
+        <v>43738.75</v>
       </c>
       <c r="C8" t="n">
-        <v>46113.65</v>
+        <v>43845.15</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>532.4</v>
+        <v>552.2</v>
       </c>
       <c r="C9" t="n">
-        <v>537.35</v>
+        <v>560.1</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3427.2</v>
+        <v>3480.9</v>
       </c>
       <c r="C10" t="n">
-        <v>3381.4</v>
+        <v>3501.2</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.25</v>
+        <v>145.85</v>
       </c>
       <c r="C11" t="n">
-        <v>147.5</v>
+        <v>146.85</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1304.6</v>
+        <v>1258.6</v>
       </c>
       <c r="C12" t="n">
-        <v>1283.6</v>
+        <v>1267.35</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1450</v>
+        <v>1469.1</v>
       </c>
       <c r="C13" t="n">
-        <v>1458.25</v>
+        <v>1450.35</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>711.45</v>
+        <v>662.4</v>
       </c>
       <c r="C14" t="n">
-        <v>711.05</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>458.75</v>
+        <v>459.6</v>
       </c>
       <c r="C15" t="n">
-        <v>461.75</v>
+        <v>467.45</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1601.1</v>
+        <v>1558.25</v>
       </c>
       <c r="C16" t="n">
-        <v>1566</v>
+        <v>1569.55</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.95</v>
+        <v>277.85</v>
       </c>
       <c r="C17" t="n">
-        <v>300.15</v>
+        <v>282.4</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20249.6</v>
+        <v>19527.85</v>
       </c>
       <c r="C18" t="n">
-        <v>20172</v>
+        <v>19618.75</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>598.8</v>
+        <v>563.1</v>
       </c>
       <c r="C19" t="n">
-        <v>597.3</v>
+        <v>571.2</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>596.2</v>
+        <v>650.15</v>
       </c>
       <c r="C20" t="n">
-        <v>605.45</v>
+        <v>660.55</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>634.25</v>
+        <v>663.2</v>
       </c>
       <c r="C21" t="n">
-        <v>624.6</v>
+        <v>668.8</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.95</v>
+        <v>247.4</v>
       </c>
       <c r="C22" t="n">
-        <v>265.1</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>131.95</v>
+        <v>123.1</v>
       </c>
       <c r="C23" t="n">
-        <v>131.7</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>2308.65</v>
+      </c>
+      <c r="C2" t="n">
         <v>2393.75</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2402.2</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>375</v>
+      </c>
+      <c r="C3" t="n">
         <v>383.95</v>
-      </c>
-      <c r="C3" t="n">
-        <v>385</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1613.15</v>
+      </c>
+      <c r="C4" t="n">
         <v>1635.05</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1634.75</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>7798.9</v>
+      </c>
+      <c r="C5" t="n">
         <v>7769.2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7841.55</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>221.3</v>
+      </c>
+      <c r="C6" t="n">
         <v>225.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>229.15</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="C7" t="n">
         <v>202.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>205.15</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>43141.6</v>
+      </c>
+      <c r="C8" t="n">
         <v>43738.75</v>
-      </c>
-      <c r="C8" t="n">
-        <v>43845.15</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>532.95</v>
+      </c>
+      <c r="C9" t="n">
         <v>552.2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>560.1</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>3446.35</v>
+      </c>
+      <c r="C10" t="n">
         <v>3480.9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3501.2</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="C11" t="n">
         <v>145.85</v>
-      </c>
-      <c r="C11" t="n">
-        <v>146.85</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>1236.65</v>
+      </c>
+      <c r="C12" t="n">
         <v>1258.6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1267.35</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C13" t="n">
         <v>1469.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1450.35</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>640.15</v>
+      </c>
+      <c r="C14" t="n">
         <v>662.4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>675</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>451.85</v>
+      </c>
+      <c r="C15" t="n">
         <v>459.6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>467.45</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>1565.15</v>
+      </c>
+      <c r="C16" t="n">
         <v>1558.25</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1569.55</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C17" t="n">
         <v>277.85</v>
-      </c>
-      <c r="C17" t="n">
-        <v>282.4</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>19269.2</v>
+      </c>
+      <c r="C18" t="n">
         <v>19527.85</v>
-      </c>
-      <c r="C18" t="n">
-        <v>19618.75</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>552.95</v>
+      </c>
+      <c r="C19" t="n">
         <v>563.1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>571.2</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="C20" t="n">
         <v>650.15</v>
-      </c>
-      <c r="C20" t="n">
-        <v>660.55</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>647.35</v>
+      </c>
+      <c r="C21" t="n">
         <v>663.2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>668.8</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>238.25</v>
+      </c>
+      <c r="C22" t="n">
         <v>247.4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>252</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>120</v>
+      </c>
+      <c r="C23" t="n">
         <v>123.1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2308.65</v>
+        <v>2233.35</v>
       </c>
       <c r="C2" t="n">
-        <v>2393.75</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>375</v>
+        <v>384.1</v>
       </c>
       <c r="C3" t="n">
-        <v>383.95</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1613.15</v>
+        <v>1569.8</v>
       </c>
       <c r="C4" t="n">
-        <v>1635.05</v>
+        <v>1564.4</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7798.9</v>
+        <v>7495.6</v>
       </c>
       <c r="C5" t="n">
-        <v>7769.2</v>
+        <v>7562.05</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>221.3</v>
+        <v>216.1</v>
       </c>
       <c r="C6" t="n">
-        <v>225.5</v>
+        <v>217.85</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.2</v>
+        <v>191.25</v>
       </c>
       <c r="C7" t="n">
-        <v>202.3</v>
+        <v>195.6</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43141.6</v>
+        <v>43926.85</v>
       </c>
       <c r="C8" t="n">
-        <v>43738.75</v>
+        <v>43839.8</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>532.95</v>
+        <v>592.45</v>
       </c>
       <c r="C9" t="n">
-        <v>552.2</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3446.35</v>
+        <v>3509.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3480.9</v>
+        <v>3510.95</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>143.4</v>
+        <v>147.3</v>
       </c>
       <c r="C11" t="n">
-        <v>145.85</v>
+        <v>144.1</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1236.65</v>
+        <v>1273.95</v>
       </c>
       <c r="C12" t="n">
-        <v>1258.6</v>
+        <v>1269.7</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1435</v>
+        <v>1486.4</v>
       </c>
       <c r="C13" t="n">
-        <v>1469.1</v>
+        <v>1470.25</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>640.15</v>
+        <v>630.35</v>
       </c>
       <c r="C14" t="n">
-        <v>662.4</v>
+        <v>622.2</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>451.85</v>
+        <v>461</v>
       </c>
       <c r="C15" t="n">
-        <v>459.6</v>
+        <v>464.85</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1565.15</v>
+        <v>1479.75</v>
       </c>
       <c r="C16" t="n">
-        <v>1558.25</v>
+        <v>1488.3</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>272.8</v>
+        <v>263.95</v>
       </c>
       <c r="C17" t="n">
-        <v>277.85</v>
+        <v>262.7</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19269.2</v>
+        <v>19476.9</v>
       </c>
       <c r="C18" t="n">
-        <v>19527.85</v>
+        <v>19486.5</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.95</v>
+        <v>579.75</v>
       </c>
       <c r="C19" t="n">
-        <v>563.1</v>
+        <v>574.35</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>631.6</v>
+        <v>652.3</v>
       </c>
       <c r="C20" t="n">
-        <v>650.15</v>
+        <v>651.45</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>647.35</v>
+        <v>645</v>
       </c>
       <c r="C21" t="n">
-        <v>663.2</v>
+        <v>646.05</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>238.25</v>
+        <v>249.8</v>
       </c>
       <c r="C22" t="n">
-        <v>247.4</v>
+        <v>249.55</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>120</v>
+        <v>119.65</v>
       </c>
       <c r="C23" t="n">
-        <v>123.1</v>
+        <v>119.4</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2233.35</v>
+        <v>2213.65</v>
       </c>
       <c r="C2" t="n">
-        <v>2246</v>
+        <v>2205.1</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384.1</v>
+        <v>415.45</v>
       </c>
       <c r="C3" t="n">
-        <v>393</v>
+        <v>418.7</v>
       </c>
     </row>
     <row r="4">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1569.8</v>
+        <v>1585.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1564.4</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7495.6</v>
+        <v>7360.85</v>
       </c>
       <c r="C5" t="n">
-        <v>7562.05</v>
+        <v>7444.8</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216.1</v>
+        <v>219.45</v>
       </c>
       <c r="C6" t="n">
-        <v>217.85</v>
+        <v>217.75</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.25</v>
+        <v>196.7</v>
       </c>
       <c r="C7" t="n">
-        <v>195.6</v>
+        <v>194.85</v>
       </c>
     </row>
     <row r="8">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43926.85</v>
+        <v>44013.7</v>
       </c>
       <c r="C8" t="n">
-        <v>43839.8</v>
+        <v>43952.4</v>
       </c>
     </row>
     <row r="9">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>592.45</v>
+        <v>608.4</v>
       </c>
       <c r="C9" t="n">
-        <v>592</v>
+        <v>606.05</v>
       </c>
     </row>
     <row r="10">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3509.05</v>
+        <v>3645.4</v>
       </c>
       <c r="C10" t="n">
-        <v>3510.95</v>
+        <v>3540.75</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>147.3</v>
+        <v>152.9</v>
       </c>
       <c r="C11" t="n">
-        <v>144.1</v>
+        <v>149.85</v>
       </c>
     </row>
     <row r="12">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1273.95</v>
+        <v>1261</v>
       </c>
       <c r="C12" t="n">
-        <v>1269.7</v>
+        <v>1255.45</v>
       </c>
     </row>
     <row r="13">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1486.4</v>
+        <v>1509.6</v>
       </c>
       <c r="C13" t="n">
-        <v>1470.25</v>
+        <v>1498.8</v>
       </c>
     </row>
     <row r="14">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>630.35</v>
+        <v>636.7</v>
       </c>
       <c r="C14" t="n">
-        <v>622.2</v>
+        <v>636.9</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>461</v>
+        <v>450.75</v>
       </c>
       <c r="C15" t="n">
-        <v>464.85</v>
+        <v>451.95</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1479.75</v>
+        <v>1540.25</v>
       </c>
       <c r="C16" t="n">
-        <v>1488.3</v>
+        <v>1524.1</v>
       </c>
     </row>
     <row r="17">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>263.95</v>
+        <v>272.1</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7</v>
+        <v>271.55</v>
       </c>
     </row>
     <row r="18">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19476.9</v>
+        <v>19497.15</v>
       </c>
       <c r="C18" t="n">
-        <v>19486.5</v>
+        <v>19482.65</v>
       </c>
     </row>
     <row r="19">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>579.75</v>
+        <v>2314.6</v>
       </c>
       <c r="C19" t="n">
-        <v>574.35</v>
+        <v>579.5</v>
       </c>
     </row>
     <row r="20">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>652.3</v>
+        <v>581.35</v>
       </c>
       <c r="C20" t="n">
-        <v>651.45</v>
+        <v>646.9</v>
       </c>
     </row>
     <row r="21">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>645</v>
+        <v>946.65</v>
       </c>
       <c r="C21" t="n">
-        <v>646.05</v>
+        <v>651.05</v>
       </c>
     </row>
     <row r="22">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>249.8</v>
+        <v>653.25</v>
       </c>
       <c r="C22" t="n">
-        <v>249.55</v>
+        <v>251.4</v>
       </c>
     </row>
     <row r="23">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>119.65</v>
+        <v>257.05</v>
       </c>
       <c r="C23" t="n">
-        <v>119.4</v>
+        <v>120.05</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2225.4</v>
+        <v>2196.65</v>
       </c>
       <c r="C2" t="n">
-        <v>2213.65</v>
+        <v>2149.85</v>
       </c>
     </row>
     <row r="3">
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>428.3</v>
+        <v>424.6</v>
       </c>
       <c r="C3" t="n">
-        <v>415.45</v>
+        <v>425.85</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1587.05</v>
+        <v>1610.4</v>
       </c>
       <c r="C4" t="n">
-        <v>1585.2</v>
+        <v>1593.8</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7224.3</v>
+        <v>7103.15</v>
       </c>
       <c r="C5" t="n">
-        <v>7360.85</v>
+        <v>7068.6</v>
       </c>
     </row>
     <row r="6">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222.1</v>
+        <v>213.9</v>
       </c>
       <c r="C6" t="n">
-        <v>219.45</v>
+        <v>213.95</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>197.7</v>
+        <v>195.75</v>
       </c>
       <c r="C7" t="n">
-        <v>196.7</v>
+        <v>197.65</v>
       </c>
     </row>
     <row r="8">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44387.25</v>
+        <v>43791.85</v>
       </c>
       <c r="C8" t="n">
-        <v>44013.7</v>
+        <v>43742.15</v>
       </c>
     </row>
     <row r="9">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>622.1</v>
+        <v>634.45</v>
       </c>
       <c r="C9" t="n">
-        <v>608.4</v>
+        <v>626.25</v>
       </c>
     </row>
     <row r="10">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3848.3</v>
+        <v>3844.2</v>
       </c>
       <c r="C10" t="n">
-        <v>3645.4</v>
+        <v>3846.45</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.15</v>
+        <v>146.7</v>
       </c>
       <c r="C11" t="n">
-        <v>152.9</v>
+        <v>147.4</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1276.65</v>
+        <v>1326.6</v>
       </c>
       <c r="C12" t="n">
-        <v>1261</v>
+        <v>1325.4</v>
       </c>
     </row>
     <row r="13">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>505.4</v>
+        <v>506.85</v>
       </c>
       <c r="C13" t="n">
-        <v>487.5</v>
+        <v>497.3</v>
       </c>
     </row>
     <row r="14">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1493.95</v>
+        <v>1502.05</v>
       </c>
       <c r="C14" t="n">
-        <v>1509.6</v>
+        <v>1504.8</v>
       </c>
     </row>
     <row r="15">
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>648.3</v>
+        <v>654.65</v>
       </c>
       <c r="C15" t="n">
-        <v>636.7</v>
+        <v>649.8</v>
       </c>
     </row>
     <row r="16">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>466.15</v>
+        <v>462.05</v>
       </c>
       <c r="C16" t="n">
-        <v>450.75</v>
+        <v>464.6</v>
       </c>
     </row>
     <row r="17">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1544.15</v>
+        <v>1559.75</v>
       </c>
       <c r="C17" t="n">
-        <v>1540.25</v>
+        <v>1552.2</v>
       </c>
     </row>
     <row r="18">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>276.4</v>
+        <v>275.15</v>
       </c>
       <c r="C18" t="n">
-        <v>272.1</v>
+        <v>275.45</v>
       </c>
     </row>
     <row r="19">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19723.3</v>
+        <v>19841.3</v>
       </c>
       <c r="C19" t="n">
-        <v>19497.15</v>
+        <v>19751.2</v>
       </c>
     </row>
     <row r="20">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>247.3</v>
+        <v>250</v>
       </c>
       <c r="C20" t="n">
-        <v>245.7</v>
+        <v>251.05</v>
       </c>
     </row>
     <row r="21">
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>584.7</v>
+        <v>561.5</v>
       </c>
       <c r="C21" t="n">
-        <v>581.35</v>
+        <v>563.75</v>
       </c>
     </row>
     <row r="22">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>665.95</v>
+        <v>662.55</v>
       </c>
       <c r="C22" t="n">
-        <v>672.25</v>
+        <v>680.15</v>
       </c>
     </row>
     <row r="23">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>671.55</v>
+        <v>681.7</v>
       </c>
       <c r="C23" t="n">
-        <v>653.25</v>
+        <v>674.3</v>
       </c>
     </row>
     <row r="24">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>259.2</v>
+        <v>262.65</v>
       </c>
       <c r="C24" t="n">
-        <v>257.05</v>
+        <v>260.85</v>
       </c>
     </row>
     <row r="25">
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124.05</v>
+        <v>126.25</v>
       </c>
       <c r="C25" t="n">
-        <v>121</v>
+        <v>124.35</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2196.65</v>
+        <v>2225.45</v>
       </c>
       <c r="C2" t="n">
-        <v>2149.85</v>
+        <v>2175.25</v>
       </c>
     </row>
     <row r="3">
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>424.6</v>
+        <v>414.6</v>
       </c>
       <c r="C3" t="n">
-        <v>425.85</v>
+        <v>420.95</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1610.4</v>
+        <v>1617.25</v>
       </c>
       <c r="C4" t="n">
-        <v>1593.8</v>
+        <v>1623.95</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7103.15</v>
+        <v>7020.8</v>
       </c>
       <c r="C5" t="n">
-        <v>7068.6</v>
+        <v>7073.65</v>
       </c>
     </row>
     <row r="6">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>213.9</v>
+        <v>212.35</v>
       </c>
       <c r="C6" t="n">
-        <v>213.95</v>
+        <v>212.4</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.75</v>
+        <v>193.1</v>
       </c>
       <c r="C7" t="n">
-        <v>197.65</v>
+        <v>194.35</v>
       </c>
     </row>
     <row r="8">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43791.85</v>
+        <v>43805.55</v>
       </c>
       <c r="C8" t="n">
-        <v>43742.15</v>
+        <v>43690.15</v>
       </c>
     </row>
     <row r="9">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>634.45</v>
+        <v>629.35</v>
       </c>
       <c r="C9" t="n">
-        <v>626.25</v>
+        <v>636.15</v>
       </c>
     </row>
     <row r="10">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3844.2</v>
+        <v>3849.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3846.45</v>
+        <v>3883.8</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>146.7</v>
+        <v>147.4</v>
       </c>
       <c r="C11" t="n">
-        <v>147.4</v>
+        <v>147.15</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1326.6</v>
+        <v>1309.15</v>
       </c>
       <c r="C12" t="n">
-        <v>1325.4</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="13">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.85</v>
+        <v>507.8</v>
       </c>
       <c r="C13" t="n">
-        <v>497.3</v>
+        <v>501.95</v>
       </c>
     </row>
     <row r="14">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1502.05</v>
+        <v>1476.2</v>
       </c>
       <c r="C14" t="n">
-        <v>1504.8</v>
+        <v>1486.1</v>
       </c>
     </row>
     <row r="15">
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>654.65</v>
+        <v>660.3</v>
       </c>
       <c r="C15" t="n">
-        <v>649.8</v>
+        <v>651.7</v>
       </c>
     </row>
     <row r="16">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>462.05</v>
+        <v>454.65</v>
       </c>
       <c r="C16" t="n">
-        <v>464.6</v>
+        <v>454.95</v>
       </c>
     </row>
     <row r="17">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1559.75</v>
+        <v>1553.2</v>
       </c>
       <c r="C17" t="n">
-        <v>1552.2</v>
+        <v>1545.85</v>
       </c>
     </row>
     <row r="18">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>275.15</v>
+        <v>263.9</v>
       </c>
       <c r="C18" t="n">
-        <v>275.45</v>
+        <v>272.15</v>
       </c>
     </row>
     <row r="19">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19841.3</v>
+        <v>19826.95</v>
       </c>
       <c r="C19" t="n">
-        <v>19751.2</v>
+        <v>19868.75</v>
       </c>
     </row>
     <row r="20">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>250</v>
+        <v>253.9</v>
       </c>
       <c r="C20" t="n">
-        <v>251.05</v>
+        <v>252.75</v>
       </c>
     </row>
     <row r="21">
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>561.5</v>
+        <v>560.35</v>
       </c>
       <c r="C21" t="n">
-        <v>563.75</v>
+        <v>559.95</v>
       </c>
     </row>
     <row r="22">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.55</v>
+        <v>669.9</v>
       </c>
       <c r="C22" t="n">
-        <v>680.15</v>
+        <v>663.45</v>
       </c>
     </row>
     <row r="23">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>681.7</v>
+        <v>673.7</v>
       </c>
       <c r="C23" t="n">
-        <v>674.3</v>
+        <v>679.95</v>
       </c>
     </row>
     <row r="24">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>262.65</v>
+        <v>258.15</v>
       </c>
       <c r="C24" t="n">
-        <v>260.85</v>
+        <v>260.75</v>
       </c>
     </row>
     <row r="25">
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>126.25</v>
+        <v>125.95</v>
       </c>
       <c r="C25" t="n">
-        <v>124.35</v>
+        <v>126.7</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2225.45</v>
+        <v>2531.2</v>
       </c>
       <c r="C2" t="n">
-        <v>2175.25</v>
+        <v>2362.7</v>
       </c>
     </row>
     <row r="3">
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>414.6</v>
+        <v>449.95</v>
       </c>
       <c r="C3" t="n">
-        <v>420.95</v>
+        <v>442.45</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1617.25</v>
+        <v>1696.25</v>
       </c>
       <c r="C4" t="n">
-        <v>1623.95</v>
+        <v>1685.95</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7020.8</v>
+        <v>7407.65</v>
       </c>
       <c r="C5" t="n">
-        <v>7073.65</v>
+        <v>7259.35</v>
       </c>
     </row>
     <row r="6">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>212.35</v>
+        <v>234.3</v>
       </c>
       <c r="C6" t="n">
-        <v>212.4</v>
+        <v>226.25</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>193.1</v>
+        <v>209.05</v>
       </c>
       <c r="C7" t="n">
-        <v>194.35</v>
+        <v>201.85</v>
       </c>
     </row>
     <row r="8">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43805.55</v>
+        <v>46659.55</v>
       </c>
       <c r="C8" t="n">
-        <v>43690.15</v>
+        <v>45071.2</v>
       </c>
     </row>
     <row r="9">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>629.35</v>
+        <v>649.25</v>
       </c>
       <c r="C9" t="n">
-        <v>636.15</v>
+        <v>629.25</v>
       </c>
     </row>
     <row r="10">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3849.05</v>
+        <v>4180.35</v>
       </c>
       <c r="C10" t="n">
-        <v>3883.8</v>
+        <v>3891.2</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>147.4</v>
+        <v>154.05</v>
       </c>
       <c r="C11" t="n">
-        <v>147.15</v>
+        <v>148.75</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1309.15</v>
+        <v>1337.95</v>
       </c>
       <c r="C12" t="n">
-        <v>1329</v>
+        <v>1336.7</v>
       </c>
     </row>
     <row r="13">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>507.8</v>
+        <v>519.25</v>
       </c>
       <c r="C13" t="n">
-        <v>501.95</v>
+        <v>517.2</v>
       </c>
     </row>
     <row r="14">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1476.2</v>
+        <v>1514.65</v>
       </c>
       <c r="C14" t="n">
-        <v>1486.1</v>
+        <v>1461.05</v>
       </c>
     </row>
     <row r="15">
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>660.3</v>
+        <v>681.5</v>
       </c>
       <c r="C15" t="n">
-        <v>651.7</v>
+        <v>692.2</v>
       </c>
     </row>
     <row r="16">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>454.65</v>
+        <v>507.55</v>
       </c>
       <c r="C16" t="n">
-        <v>454.95</v>
+        <v>492.7</v>
       </c>
     </row>
     <row r="17">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1553.2</v>
+        <v>1656.85</v>
       </c>
       <c r="C17" t="n">
-        <v>1545.85</v>
+        <v>1625.5</v>
       </c>
     </row>
     <row r="18">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>263.9</v>
+        <v>277.7</v>
       </c>
       <c r="C18" t="n">
-        <v>272.15</v>
+        <v>273.65</v>
       </c>
     </row>
     <row r="19">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19826.95</v>
+        <v>20798.9</v>
       </c>
       <c r="C19" t="n">
-        <v>19868.75</v>
+        <v>20375.15</v>
       </c>
     </row>
     <row r="20">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>253.9</v>
+        <v>274.8</v>
       </c>
       <c r="C20" t="n">
-        <v>252.75</v>
+        <v>268.95</v>
       </c>
     </row>
     <row r="21">
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>560.35</v>
+        <v>594.7</v>
       </c>
       <c r="C21" t="n">
-        <v>559.95</v>
+        <v>571.75</v>
       </c>
     </row>
     <row r="22">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>669.9</v>
+        <v>676.65</v>
       </c>
       <c r="C22" t="n">
-        <v>663.45</v>
+        <v>673.75</v>
       </c>
     </row>
     <row r="23">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>673.7</v>
+        <v>705.6</v>
       </c>
       <c r="C23" t="n">
-        <v>679.95</v>
+        <v>705.45</v>
       </c>
     </row>
     <row r="24">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>258.15</v>
+        <v>281.55</v>
       </c>
       <c r="C24" t="n">
-        <v>260.75</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25">
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.95</v>
+        <v>131</v>
       </c>
       <c r="C25" t="n">
-        <v>126.7</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2531.2</v>
+        <v>2822.15</v>
       </c>
       <c r="C2" t="n">
-        <v>2362.7</v>
+        <v>2887.15</v>
       </c>
     </row>
     <row r="3">
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>449.95</v>
+        <v>458.55</v>
       </c>
       <c r="C3" t="n">
-        <v>442.45</v>
+        <v>455.15</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1696.25</v>
+        <v>1710.15</v>
       </c>
       <c r="C4" t="n">
-        <v>1685.95</v>
+        <v>1704.05</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7407.65</v>
+        <v>7307.6</v>
       </c>
       <c r="C5" t="n">
-        <v>7259.35</v>
+        <v>7391.2</v>
       </c>
     </row>
     <row r="6">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>234.3</v>
+        <v>237.05</v>
       </c>
       <c r="C6" t="n">
-        <v>226.25</v>
+        <v>238.15</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.05</v>
+        <v>212</v>
       </c>
       <c r="C7" t="n">
-        <v>201.85</v>
+        <v>211.15</v>
       </c>
     </row>
     <row r="8">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46659.55</v>
+        <v>47499.8</v>
       </c>
       <c r="C8" t="n">
-        <v>45071.2</v>
+        <v>47047.15</v>
       </c>
     </row>
     <row r="9">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>649.25</v>
+        <v>649.9</v>
       </c>
       <c r="C9" t="n">
-        <v>629.25</v>
+        <v>648.6</v>
       </c>
     </row>
     <row r="10">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4180.35</v>
+        <v>4055</v>
       </c>
       <c r="C10" t="n">
-        <v>3891.2</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.05</v>
+        <v>154.5</v>
       </c>
       <c r="C11" t="n">
-        <v>148.75</v>
+        <v>154.65</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1337.95</v>
+        <v>1364.1</v>
       </c>
       <c r="C12" t="n">
-        <v>1336.7</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="13">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>519.25</v>
+        <v>520.35</v>
       </c>
       <c r="C13" t="n">
-        <v>517.2</v>
+        <v>516.05</v>
       </c>
     </row>
     <row r="14">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1514.65</v>
+        <v>1508.95</v>
       </c>
       <c r="C14" t="n">
-        <v>1461.05</v>
+        <v>1504.75</v>
       </c>
     </row>
     <row r="15">
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>681.5</v>
+        <v>686.25</v>
       </c>
       <c r="C15" t="n">
-        <v>692.2</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>507.55</v>
+        <v>532.3</v>
       </c>
       <c r="C16" t="n">
-        <v>492.7</v>
+        <v>518.7</v>
       </c>
     </row>
     <row r="17">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1656.85</v>
+        <v>1668.55</v>
       </c>
       <c r="C17" t="n">
-        <v>1625.5</v>
+        <v>1692.65</v>
       </c>
     </row>
     <row r="18">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>277.7</v>
+        <v>273.25</v>
       </c>
       <c r="C18" t="n">
-        <v>273.65</v>
+        <v>274.15</v>
       </c>
     </row>
     <row r="19">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20798.9</v>
+        <v>21075</v>
       </c>
       <c r="C19" t="n">
-        <v>20375.15</v>
+        <v>21030.8</v>
       </c>
     </row>
     <row r="20">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.8</v>
+        <v>285.05</v>
       </c>
       <c r="C20" t="n">
-        <v>268.95</v>
+        <v>283.8</v>
       </c>
     </row>
     <row r="21">
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>594.7</v>
+        <v>614.15</v>
       </c>
       <c r="C21" t="n">
-        <v>571.75</v>
+        <v>611.7</v>
       </c>
     </row>
     <row r="22">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>676.65</v>
+        <v>671.6</v>
       </c>
       <c r="C22" t="n">
-        <v>673.75</v>
+        <v>679.5</v>
       </c>
     </row>
     <row r="23">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>705.6</v>
+        <v>714.55</v>
       </c>
       <c r="C23" t="n">
-        <v>705.45</v>
+        <v>721.95</v>
       </c>
     </row>
     <row r="24">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>281.55</v>
+        <v>323.55</v>
       </c>
       <c r="C24" t="n">
-        <v>276</v>
+        <v>325.8</v>
       </c>
     </row>
     <row r="25">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131</v>
+        <v>129.2</v>
       </c>
       <c r="C25" t="n">
         <v>130</v>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2822.15</v>
+        <v>2848.95</v>
       </c>
       <c r="C2" t="n">
-        <v>2887.15</v>
+        <v>2809.9</v>
       </c>
     </row>
     <row r="3">
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>458.55</v>
+        <v>454.05</v>
       </c>
       <c r="C3" t="n">
-        <v>455.15</v>
+        <v>438.9</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1710.15</v>
+        <v>1685.8</v>
       </c>
       <c r="C4" t="n">
-        <v>1704.05</v>
+        <v>1681.2</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7307.6</v>
+        <v>7327.75</v>
       </c>
       <c r="C5" t="n">
-        <v>7391.2</v>
+        <v>7258.65</v>
       </c>
     </row>
     <row r="6">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>237.05</v>
+        <v>241.4</v>
       </c>
       <c r="C6" t="n">
-        <v>238.15</v>
+        <v>239.35</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212</v>
+        <v>231.1</v>
       </c>
       <c r="C7" t="n">
-        <v>211.15</v>
+        <v>232.95</v>
       </c>
     </row>
     <row r="8">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47499.8</v>
+        <v>48628.8</v>
       </c>
       <c r="C8" t="n">
-        <v>47047.15</v>
+        <v>48822.2</v>
       </c>
     </row>
     <row r="9">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>649.9</v>
+        <v>726.4</v>
       </c>
       <c r="C9" t="n">
-        <v>648.6</v>
+        <v>728.65</v>
       </c>
     </row>
     <row r="10">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4055</v>
+        <v>4143.5</v>
       </c>
       <c r="C10" t="n">
-        <v>4091</v>
+        <v>4091.9</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.5</v>
+        <v>156.15</v>
       </c>
       <c r="C11" t="n">
-        <v>154.65</v>
+        <v>155.5</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1364.1</v>
+        <v>1466.1</v>
       </c>
       <c r="C12" t="n">
-        <v>1328</v>
+        <v>1472.45</v>
       </c>
     </row>
     <row r="13">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>520.35</v>
+        <v>614.85</v>
       </c>
       <c r="C13" t="n">
-        <v>516.05</v>
+        <v>614.3</v>
       </c>
     </row>
     <row r="14">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1508.95</v>
+        <v>1598.95</v>
       </c>
       <c r="C14" t="n">
-        <v>1504.75</v>
+        <v>1610.55</v>
       </c>
     </row>
     <row r="15">
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>686.25</v>
+        <v>748.1</v>
       </c>
       <c r="C15" t="n">
-        <v>684</v>
+        <v>736.35</v>
       </c>
     </row>
     <row r="16">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>532.3</v>
+        <v>536.1</v>
       </c>
       <c r="C16" t="n">
-        <v>518.7</v>
+        <v>527.2</v>
       </c>
     </row>
     <row r="17">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1668.55</v>
+        <v>1729.4</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.65</v>
+        <v>1734.45</v>
       </c>
     </row>
     <row r="18">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>276.7</v>
+      </c>
+      <c r="C18" t="n">
         <v>273.25</v>
-      </c>
-      <c r="C18" t="n">
-        <v>274.15</v>
       </c>
     </row>
     <row r="19">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21075</v>
+        <v>21885.95</v>
       </c>
       <c r="C19" t="n">
-        <v>21030.8</v>
+        <v>21942.3</v>
       </c>
     </row>
     <row r="20">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.05</v>
+        <v>311.15</v>
       </c>
       <c r="C20" t="n">
-        <v>283.8</v>
+        <v>313.9</v>
       </c>
     </row>
     <row r="21">
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>614.15</v>
+        <v>642.05</v>
       </c>
       <c r="C21" t="n">
-        <v>611.7</v>
+        <v>651.4</v>
       </c>
     </row>
     <row r="22">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>671.6</v>
+        <v>712.2</v>
       </c>
       <c r="C22" t="n">
-        <v>679.5</v>
+        <v>715.55</v>
       </c>
     </row>
     <row r="23">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>714.55</v>
+        <v>779.95</v>
       </c>
       <c r="C23" t="n">
-        <v>721.95</v>
+        <v>753.9</v>
       </c>
     </row>
     <row r="24">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>323.55</v>
+        <v>332.15</v>
       </c>
       <c r="C24" t="n">
-        <v>325.8</v>
+        <v>329.8</v>
       </c>
     </row>
     <row r="25">
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.2</v>
+        <v>139.6</v>
       </c>
       <c r="C25" t="n">
-        <v>130</v>
+        <v>138.15</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2848.95</v>
+        <v>2903.45</v>
       </c>
       <c r="C2" t="n">
-        <v>2809.9</v>
+        <v>2896.55</v>
       </c>
     </row>
     <row r="3">
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>454.05</v>
+        <v>525.75</v>
       </c>
       <c r="C3" t="n">
-        <v>438.9</v>
+        <v>510.4</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1685.8</v>
+        <v>1620.85</v>
       </c>
       <c r="C4" t="n">
-        <v>1681.2</v>
+        <v>1582.5</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7327.75</v>
+        <v>7055.3</v>
       </c>
       <c r="C5" t="n">
-        <v>7258.65</v>
+        <v>7070.7</v>
       </c>
     </row>
     <row r="6">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>241.4</v>
+        <v>224.4</v>
       </c>
       <c r="C6" t="n">
-        <v>239.35</v>
+        <v>223.7</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>231.1</v>
+        <v>228.65</v>
       </c>
       <c r="C7" t="n">
-        <v>232.95</v>
+        <v>222.4</v>
       </c>
     </row>
     <row r="8">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48628.8</v>
+        <v>45152.85</v>
       </c>
       <c r="C8" t="n">
-        <v>48822.2</v>
+        <v>44913.05</v>
       </c>
     </row>
     <row r="9">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>726.4</v>
+        <v>747.4</v>
       </c>
       <c r="C9" t="n">
-        <v>728.65</v>
+        <v>739.3</v>
       </c>
     </row>
     <row r="10">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4143.5</v>
+        <v>3635</v>
       </c>
       <c r="C10" t="n">
-        <v>4091.9</v>
+        <v>3616.7</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.15</v>
+        <v>142.2</v>
       </c>
       <c r="C11" t="n">
-        <v>155.5</v>
+        <v>140.25</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1466.1</v>
+        <v>1576.4</v>
       </c>
       <c r="C12" t="n">
-        <v>1472.45</v>
+        <v>1523.65</v>
       </c>
     </row>
     <row r="13">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>614.85</v>
+        <v>565.15</v>
       </c>
       <c r="C13" t="n">
-        <v>614.3</v>
+        <v>541.4</v>
       </c>
     </row>
     <row r="14">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1598.95</v>
+        <v>1490.85</v>
       </c>
       <c r="C14" t="n">
-        <v>1610.55</v>
+        <v>1441.7</v>
       </c>
     </row>
     <row r="15">
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>748.1</v>
+        <v>706.3</v>
       </c>
       <c r="C15" t="n">
-        <v>736.35</v>
+        <v>694.65</v>
       </c>
     </row>
     <row r="16">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>536.1</v>
+        <v>577.4</v>
       </c>
       <c r="C16" t="n">
-        <v>527.2</v>
+        <v>560.75</v>
       </c>
     </row>
     <row r="17">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1729.4</v>
+        <v>1628.1</v>
       </c>
       <c r="C17" t="n">
-        <v>1734.45</v>
+        <v>1595.2</v>
       </c>
     </row>
     <row r="18">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>276.7</v>
+        <v>272.55</v>
       </c>
       <c r="C18" t="n">
-        <v>273.25</v>
+        <v>270.55</v>
       </c>
     </row>
     <row r="19">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21885.95</v>
+        <v>21477.6</v>
       </c>
       <c r="C19" t="n">
-        <v>21942.3</v>
+        <v>21194.25</v>
       </c>
     </row>
     <row r="20">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>311.15</v>
+        <v>308.85</v>
       </c>
       <c r="C20" t="n">
-        <v>313.9</v>
+        <v>302.6</v>
       </c>
     </row>
     <row r="21">
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>642.05</v>
+        <v>618.3</v>
       </c>
       <c r="C21" t="n">
-        <v>651.4</v>
+        <v>605.1</v>
       </c>
     </row>
     <row r="22">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>712.2</v>
+        <v>643.95</v>
       </c>
       <c r="C22" t="n">
-        <v>715.55</v>
+        <v>619.75</v>
       </c>
     </row>
     <row r="23">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>779.95</v>
+        <v>810.9</v>
       </c>
       <c r="C23" t="n">
-        <v>753.9</v>
+        <v>800.45</v>
       </c>
     </row>
     <row r="24">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>332.15</v>
+        <v>356.95</v>
       </c>
       <c r="C24" t="n">
-        <v>329.8</v>
+        <v>346.2</v>
       </c>
     </row>
     <row r="25">
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.6</v>
+        <v>135.15</v>
       </c>
       <c r="C25" t="n">
-        <v>138.15</v>
+        <v>130.1</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,8 +46,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +416,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -441,317 +442,331 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADANI</t>
+          <t>AARTIIND</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2903.45</v>
+        <v>674.3</v>
       </c>
       <c r="C2" t="n">
-        <v>2896.55</v>
+        <v>683.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APOLLO</t>
+          <t>ADANI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.75</v>
+        <v>3273.3</v>
       </c>
       <c r="C3" t="n">
-        <v>510.4</v>
+        <v>3263.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAJFINSV</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1620.85</v>
+        <v>523.75</v>
       </c>
       <c r="C4" t="n">
-        <v>1582.5</v>
+        <v>522.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BAJFIN</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7055.3</v>
+          <t>BAJFINSV</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1616.55</v>
       </c>
       <c r="C5" t="n">
-        <v>7070.7</v>
+        <v>1592.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANBK</t>
+          <t>BAJFIN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224.4</v>
+        <v>6697.85</v>
       </c>
       <c r="C6" t="n">
-        <v>223.7</v>
+        <v>6674.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BARODA</t>
+          <t>BANBK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>228.65</v>
+        <v>208.25</v>
       </c>
       <c r="C7" t="n">
-        <v>222.4</v>
+        <v>203.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>BARODA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45152.85</v>
+        <v>268.85</v>
       </c>
       <c r="C8" t="n">
-        <v>44913.05</v>
+        <v>275.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>BN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>747.4</v>
+        <v>46842.65</v>
       </c>
       <c r="C9" t="n">
-        <v>739.3</v>
+        <v>46980.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EICHER</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3635</v>
+        <v>899.25</v>
       </c>
       <c r="C10" t="n">
-        <v>3616.7</v>
+        <v>892.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FEDBANK</t>
+          <t>EICHER</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142.2</v>
+        <v>3927.05</v>
       </c>
       <c r="C11" t="n">
-        <v>140.25</v>
+        <v>3951.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HCL</t>
+          <t>FEDBANK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1576.4</v>
+        <v>152.45</v>
       </c>
       <c r="C12" t="n">
-        <v>1523.65</v>
+        <v>153.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>HCL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>565.15</v>
+        <v>1665.75</v>
       </c>
       <c r="C13" t="n">
-        <v>541.4</v>
+        <v>1686.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INDUSIND</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1490.85</v>
+        <v>518.35</v>
       </c>
       <c r="C14" t="n">
-        <v>1441.7</v>
+        <v>521.15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JIND</t>
+          <t>INDUSIND</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>706.3</v>
+        <v>1480.3</v>
       </c>
       <c r="C15" t="n">
-        <v>694.65</v>
+        <v>1489.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LIC</t>
+          <t>JIND</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>577.4</v>
+        <v>786.55</v>
       </c>
       <c r="C16" t="n">
-        <v>560.75</v>
+        <v>783.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>LIC</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1628.1</v>
+        <v>642.3</v>
       </c>
       <c r="C17" t="n">
-        <v>1595.2</v>
+        <v>642.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M&amp;MFIN</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>272.55</v>
+        <v>1929.95</v>
       </c>
       <c r="C18" t="n">
-        <v>270.55</v>
+        <v>1910.35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NIFTY</t>
+          <t>M&amp;MFIN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21477.6</v>
+        <v>292.95</v>
       </c>
       <c r="C19" t="n">
-        <v>21194.25</v>
+        <v>290.65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>NIFTY</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.85</v>
+        <v>22228.85</v>
       </c>
       <c r="C20" t="n">
-        <v>302.6</v>
+        <v>22243.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>NTPC</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>618.3</v>
+        <v>337.75</v>
       </c>
       <c r="C21" t="n">
-        <v>605.1</v>
+        <v>339.55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SUNTV</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>643.95</v>
+        <v>759.05</v>
       </c>
       <c r="C22" t="n">
-        <v>619.75</v>
+        <v>765.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>SUNTV</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9</v>
+        <v>634.4</v>
       </c>
       <c r="C23" t="n">
-        <v>800.45</v>
+        <v>624.65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>356.95</v>
+        <v>937.4</v>
       </c>
       <c r="C24" t="n">
-        <v>346.2</v>
+        <v>932.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>378.4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>377.9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>TS</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>135.15</v>
-      </c>
-      <c r="C25" t="n">
-        <v>130.1</v>
+      <c r="B26" t="n">
+        <v>145.45</v>
+      </c>
+      <c r="C26" t="n">
+        <v>145.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L11" sqref="K11:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>674.3</v>
+        <v>662.1</v>
       </c>
       <c r="C2" t="n">
-        <v>683.25</v>
+        <v>673.25</v>
       </c>
     </row>
     <row r="3">
@@ -458,11 +458,11 @@
           <t>ADANI</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3273.3</v>
+      <c r="B3" s="1" t="n">
+        <v>3317.15</v>
       </c>
       <c r="C3" t="n">
-        <v>3263.05</v>
+        <v>3318.75</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>523.75</v>
+        <v>535.1</v>
       </c>
       <c r="C4" t="n">
-        <v>522.85</v>
+        <v>529.8</v>
       </c>
     </row>
     <row r="5">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1616.55</v>
+        <v>1619.3</v>
       </c>
       <c r="C5" t="n">
-        <v>1592.55</v>
+        <v>1613.4</v>
       </c>
     </row>
     <row r="6">
@@ -497,11 +497,11 @@
           <t>BAJFIN</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>6697.85</v>
+      <c r="B6" s="1" t="n">
+        <v>6602.45</v>
       </c>
       <c r="C6" t="n">
-        <v>6674.95</v>
+        <v>6571.45</v>
       </c>
     </row>
     <row r="7">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208.25</v>
+        <v>199</v>
       </c>
       <c r="C7" t="n">
-        <v>203.65</v>
+        <v>199.85</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>268.85</v>
+        <v>273.2</v>
       </c>
       <c r="C8" t="n">
-        <v>275.6</v>
+        <v>271.15</v>
       </c>
     </row>
     <row r="9">
@@ -536,11 +536,11 @@
           <t>BN</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>46842.65</v>
+      <c r="B9" s="1" t="n">
+        <v>47691.25</v>
       </c>
       <c r="C9" t="n">
-        <v>46980.3</v>
+        <v>47578</v>
       </c>
     </row>
     <row r="10">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>899.25</v>
+        <v>931.8</v>
       </c>
       <c r="C10" t="n">
-        <v>892.25</v>
+        <v>909.9</v>
       </c>
     </row>
     <row r="11">
@@ -562,11 +562,11 @@
           <t>EICHER</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>3927.05</v>
+      <c r="B11" s="1" t="n">
+        <v>3751.45</v>
       </c>
       <c r="C11" t="n">
-        <v>3951.4</v>
+        <v>3843.55</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>152.45</v>
+        <v>153.6</v>
       </c>
       <c r="C12" t="n">
-        <v>153.6</v>
+        <v>152.6</v>
       </c>
     </row>
     <row r="13">
@@ -588,11 +588,11 @@
           <t>HCL</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>1665.75</v>
+      <c r="B13" s="1" t="n">
+        <v>1637.95</v>
       </c>
       <c r="C13" t="n">
-        <v>1686.4</v>
+        <v>1644.1</v>
       </c>
     </row>
     <row r="14">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>518.35</v>
+        <v>524.95</v>
       </c>
       <c r="C14" t="n">
-        <v>521.15</v>
+        <v>519.1</v>
       </c>
     </row>
     <row r="15">
@@ -614,11 +614,11 @@
           <t>INDUSIND</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1480.3</v>
+      <c r="B15" s="1" t="n">
+        <v>1531.3</v>
       </c>
       <c r="C15" t="n">
-        <v>1489.15</v>
+        <v>1526.65</v>
       </c>
     </row>
     <row r="16">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>786.55</v>
+        <v>839.45</v>
       </c>
       <c r="C16" t="n">
-        <v>783.7</v>
+        <v>822.85</v>
       </c>
     </row>
     <row r="17">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>642.3</v>
+        <v>657.75</v>
       </c>
       <c r="C17" t="n">
-        <v>642.25</v>
+        <v>648.75</v>
       </c>
     </row>
     <row r="18">
@@ -653,11 +653,11 @@
           <t>M&amp;M</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>1929.95</v>
+      <c r="B18" s="1" t="n">
+        <v>1921.05</v>
       </c>
       <c r="C18" t="n">
-        <v>1910.35</v>
+        <v>1972.95</v>
       </c>
     </row>
     <row r="19">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>292.95</v>
+        <v>287.5</v>
       </c>
       <c r="C19" t="n">
-        <v>290.65</v>
+        <v>287.75</v>
       </c>
     </row>
     <row r="20">
@@ -679,11 +679,11 @@
           <t>NIFTY</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>22228.85</v>
+      <c r="B20" s="1" t="n">
+        <v>22497.95</v>
       </c>
       <c r="C20" t="n">
-        <v>22243.25</v>
+        <v>22443.2</v>
       </c>
     </row>
     <row r="21">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>337.75</v>
+        <v>353.85</v>
       </c>
       <c r="C21" t="n">
-        <v>339.55</v>
+        <v>343.5</v>
       </c>
     </row>
     <row r="22">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.05</v>
+        <v>772.05</v>
       </c>
       <c r="C22" t="n">
-        <v>765.9</v>
+        <v>769.15</v>
       </c>
     </row>
     <row r="23">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>634.4</v>
+        <v>639.05</v>
       </c>
       <c r="C23" t="n">
-        <v>624.65</v>
+        <v>613.9</v>
       </c>
     </row>
     <row r="24">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>937.4</v>
+        <v>987.2</v>
       </c>
       <c r="C24" t="n">
-        <v>932.3</v>
+        <v>977.4</v>
       </c>
     </row>
     <row r="25">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>378.4</v>
+        <v>391.75</v>
       </c>
       <c r="C25" t="n">
-        <v>377.9</v>
+        <v>377.4</v>
       </c>
     </row>
     <row r="26">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>145.45</v>
+        <v>153.1</v>
       </c>
       <c r="C26" t="n">
-        <v>145.9</v>
+        <v>149.95</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="K11:L12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>662.1</v>
+        <v>621.9</v>
       </c>
       <c r="C2" t="n">
-        <v>673.25</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>3317.15</v>
+        <v>3049.75</v>
       </c>
       <c r="C3" t="n">
-        <v>3318.75</v>
+        <v>3037.55</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>535.1</v>
+        <v>474.1</v>
       </c>
       <c r="C4" t="n">
-        <v>529.8</v>
+        <v>474.15</v>
       </c>
     </row>
     <row r="5">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1619.3</v>
+        <v>1569.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1613.4</v>
+        <v>1576.45</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>6602.45</v>
+        <v>6680</v>
       </c>
       <c r="C6" t="n">
-        <v>6571.45</v>
+        <v>6675.7</v>
       </c>
     </row>
     <row r="7">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199</v>
+        <v>189.9</v>
       </c>
       <c r="C7" t="n">
-        <v>199.85</v>
+        <v>188.55</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>273.2</v>
+        <v>263.9</v>
       </c>
       <c r="C8" t="n">
-        <v>271.15</v>
+        <v>260.85</v>
       </c>
     </row>
     <row r="9">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>47691.25</v>
+        <v>47908.55</v>
       </c>
       <c r="C9" t="n">
-        <v>47578</v>
+        <v>48091.65</v>
       </c>
     </row>
     <row r="10">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>931.8</v>
+        <v>825.65</v>
       </c>
       <c r="C10" t="n">
-        <v>909.9</v>
+        <v>839.05</v>
       </c>
     </row>
     <row r="11">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>3751.45</v>
+        <v>4649.35</v>
       </c>
       <c r="C11" t="n">
-        <v>3843.55</v>
+        <v>4730.55</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>153.6</v>
+        <v>162.75</v>
       </c>
       <c r="C12" t="n">
-        <v>152.6</v>
+        <v>163.9</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1637.95</v>
+        <v>1332.9</v>
       </c>
       <c r="C13" t="n">
-        <v>1644.1</v>
+        <v>1321.05</v>
       </c>
     </row>
     <row r="14">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>524.95</v>
+        <v>653.7</v>
       </c>
       <c r="C14" t="n">
-        <v>519.1</v>
+        <v>646.65</v>
       </c>
     </row>
     <row r="15">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>1531.3</v>
+        <v>1417.1</v>
       </c>
       <c r="C15" t="n">
-        <v>1526.65</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="16">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>839.45</v>
+        <v>993.55</v>
       </c>
       <c r="C16" t="n">
-        <v>822.85</v>
+        <v>978.45</v>
       </c>
     </row>
     <row r="17">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>657.75</v>
+        <v>631</v>
       </c>
       <c r="C17" t="n">
-        <v>648.75</v>
+        <v>633.75</v>
       </c>
     </row>
     <row r="18">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>1921.05</v>
+        <v>2302.3</v>
       </c>
       <c r="C18" t="n">
-        <v>1972.95</v>
+        <v>2269.9</v>
       </c>
     </row>
     <row r="19">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>287.5</v>
+        <v>266.9</v>
       </c>
       <c r="C19" t="n">
-        <v>287.75</v>
+        <v>263.75</v>
       </c>
     </row>
     <row r="20">
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>22497.95</v>
+        <v>22287.05</v>
       </c>
       <c r="C20" t="n">
-        <v>22443.2</v>
+        <v>22308.7</v>
       </c>
     </row>
     <row r="21">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>353.85</v>
+        <v>361.35</v>
       </c>
       <c r="C21" t="n">
-        <v>343.5</v>
+        <v>355.8</v>
       </c>
     </row>
     <row r="22">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>772.05</v>
+        <v>820.3</v>
       </c>
       <c r="C22" t="n">
-        <v>769.15</v>
+        <v>818.2</v>
       </c>
     </row>
     <row r="23">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>639.05</v>
+        <v>660.85</v>
       </c>
       <c r="C23" t="n">
-        <v>613.9</v>
+        <v>668.7</v>
       </c>
     </row>
     <row r="24">
@@ -731,11 +731,11 @@
           <t>TM</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>987.2</v>
+      <c r="B24" s="1" t="n">
+        <v>947.3</v>
       </c>
       <c r="C24" t="n">
-        <v>977.4</v>
+        <v>964.65</v>
       </c>
     </row>
     <row r="25">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>391.75</v>
+        <v>431.3</v>
       </c>
       <c r="C25" t="n">
-        <v>377.4</v>
+        <v>430.35</v>
       </c>
     </row>
     <row r="26">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>153.1</v>
+        <v>165.6</v>
       </c>
       <c r="C26" t="n">
-        <v>149.95</v>
+        <v>164.95</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>621.9</v>
+        <v>628</v>
       </c>
       <c r="C2" t="n">
-        <v>653</v>
+        <v>629.4</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>3049.75</v>
+        <v>3258.8</v>
       </c>
       <c r="C3" t="n">
-        <v>3037.55</v>
+        <v>3244.05</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474.1</v>
+        <v>471.05</v>
       </c>
       <c r="C4" t="n">
-        <v>474.15</v>
+        <v>473.95</v>
       </c>
     </row>
     <row r="5">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1569.05</v>
+        <v>1569.9</v>
       </c>
       <c r="C5" t="n">
-        <v>1576.45</v>
+        <v>1599.65</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>6680</v>
+        <v>6806.7</v>
       </c>
       <c r="C6" t="n">
-        <v>6675.7</v>
+        <v>6873.05</v>
       </c>
     </row>
     <row r="7">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9</v>
+        <v>191.7</v>
       </c>
       <c r="C7" t="n">
-        <v>188.55</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.9</v>
+        <v>263.4</v>
       </c>
       <c r="C8" t="n">
-        <v>260.85</v>
+        <v>264.3</v>
       </c>
     </row>
     <row r="9">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>47908.55</v>
+        <v>48501.35</v>
       </c>
       <c r="C9" t="n">
-        <v>48091.65</v>
+        <v>49182.8</v>
       </c>
     </row>
     <row r="10">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.65</v>
+        <v>818.3</v>
       </c>
       <c r="C10" t="n">
-        <v>839.05</v>
+        <v>820</v>
       </c>
     </row>
     <row r="11">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>4649.35</v>
+        <v>4745.4</v>
       </c>
       <c r="C11" t="n">
-        <v>4730.55</v>
+        <v>4770.95</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>162.75</v>
+        <v>159.5</v>
       </c>
       <c r="C12" t="n">
-        <v>163.9</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1332.9</v>
+        <v>1353.1</v>
       </c>
       <c r="C13" t="n">
-        <v>1321.05</v>
+        <v>1358.4</v>
       </c>
     </row>
     <row r="14">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>653.7</v>
+        <v>705.3</v>
       </c>
       <c r="C14" t="n">
-        <v>646.65</v>
+        <v>681.3</v>
       </c>
     </row>
     <row r="15">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>1417.1</v>
+        <v>1460.25</v>
       </c>
       <c r="C15" t="n">
-        <v>1421</v>
+        <v>1459.35</v>
       </c>
     </row>
     <row r="16">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>993.55</v>
+        <v>1038.55</v>
       </c>
       <c r="C16" t="n">
-        <v>978.45</v>
+        <v>1052.6</v>
       </c>
     </row>
     <row r="17">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>631</v>
+        <v>646.8</v>
       </c>
       <c r="C17" t="n">
-        <v>633.75</v>
+        <v>645.4</v>
       </c>
     </row>
     <row r="18">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>2302.3</v>
+        <v>2533.65</v>
       </c>
       <c r="C18" t="n">
-        <v>2269.9</v>
+        <v>2552.8</v>
       </c>
     </row>
     <row r="19">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.9</v>
+        <v>268.45</v>
       </c>
       <c r="C19" t="n">
-        <v>263.75</v>
+        <v>269.75</v>
       </c>
     </row>
     <row r="20">
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>22287.05</v>
+        <v>22743.8</v>
       </c>
       <c r="C20" t="n">
-        <v>22308.7</v>
+        <v>22937.25</v>
       </c>
     </row>
     <row r="21">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>361.35</v>
+        <v>364.6</v>
       </c>
       <c r="C21" t="n">
-        <v>355.8</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="22">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>820.3</v>
+        <v>822.65</v>
       </c>
       <c r="C22" t="n">
-        <v>818.2</v>
+        <v>831.15</v>
       </c>
     </row>
     <row r="23">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>660.85</v>
+        <v>653.75</v>
       </c>
       <c r="C23" t="n">
-        <v>668.7</v>
+        <v>660.7</v>
       </c>
     </row>
     <row r="24">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>947.3</v>
+        <v>943.6</v>
       </c>
       <c r="C24" t="n">
-        <v>964.65</v>
+        <v>947.55</v>
       </c>
     </row>
     <row r="25">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>431.3</v>
+        <v>432.85</v>
       </c>
       <c r="C25" t="n">
-        <v>430.35</v>
+        <v>436.9</v>
       </c>
     </row>
     <row r="26">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>165.6</v>
+        <v>174.25</v>
       </c>
       <c r="C26" t="n">
-        <v>164.95</v>
+        <v>174.9</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>628</v>
+        <v>675.75</v>
       </c>
       <c r="C2" t="n">
-        <v>629.4</v>
+        <v>675.25</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>3258.8</v>
+        <v>3261.75</v>
       </c>
       <c r="C3" t="n">
-        <v>3244.05</v>
+        <v>3224.8</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.05</v>
+        <v>476.45</v>
       </c>
       <c r="C4" t="n">
-        <v>473.95</v>
+        <v>476.7</v>
       </c>
     </row>
     <row r="5">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1569.9</v>
+        <v>1591.75</v>
       </c>
       <c r="C5" t="n">
-        <v>1599.65</v>
+        <v>1590.1</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>6806.7</v>
+        <v>7341.55</v>
       </c>
       <c r="C6" t="n">
-        <v>6873.05</v>
+        <v>7294.95</v>
       </c>
     </row>
     <row r="7">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.7</v>
+        <v>194.34</v>
       </c>
       <c r="C7" t="n">
-        <v>190.3</v>
+        <v>194.23</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.4</v>
+        <v>286.25</v>
       </c>
       <c r="C8" t="n">
-        <v>264.3</v>
+        <v>282.7</v>
       </c>
     </row>
     <row r="9">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>48501.35</v>
+        <v>50042.4</v>
       </c>
       <c r="C9" t="n">
-        <v>49182.8</v>
+        <v>49912.65</v>
       </c>
     </row>
     <row r="10">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>818.3</v>
+        <v>878.6</v>
       </c>
       <c r="C10" t="n">
-        <v>820</v>
+        <v>874.05</v>
       </c>
     </row>
     <row r="11">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>4745.4</v>
+        <v>4935.1</v>
       </c>
       <c r="C11" t="n">
-        <v>4770.95</v>
+        <v>4801.5</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>159.5</v>
+        <v>174.4</v>
       </c>
       <c r="C12" t="n">
-        <v>160</v>
+        <v>172.26</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1353.1</v>
+        <v>1431.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1358.4</v>
+        <v>1444.15</v>
       </c>
     </row>
     <row r="14">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>705.3</v>
+        <v>683.6</v>
       </c>
       <c r="C14" t="n">
-        <v>681.3</v>
+        <v>680.7</v>
       </c>
     </row>
     <row r="15">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>1460.25</v>
+        <v>1502.35</v>
       </c>
       <c r="C15" t="n">
-        <v>1459.35</v>
+        <v>1507.25</v>
       </c>
     </row>
     <row r="16">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1038.55</v>
+        <v>1052.45</v>
       </c>
       <c r="C16" t="n">
-        <v>1052.6</v>
+        <v>1041.25</v>
       </c>
     </row>
     <row r="17">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>646.8</v>
+        <v>731.65</v>
       </c>
       <c r="C17" t="n">
-        <v>645.4</v>
+        <v>719.3</v>
       </c>
     </row>
     <row r="18">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>2533.65</v>
+        <v>2928.6</v>
       </c>
       <c r="C18" t="n">
-        <v>2552.8</v>
+        <v>2861.7</v>
       </c>
     </row>
     <row r="19">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>268.45</v>
+        <v>298.95</v>
       </c>
       <c r="C19" t="n">
-        <v>269.75</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="20">
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>22743.8</v>
+        <v>23466.65</v>
       </c>
       <c r="C20" t="n">
-        <v>22937.25</v>
+        <v>23399.25</v>
       </c>
     </row>
     <row r="21">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>364.6</v>
+        <v>368.45</v>
       </c>
       <c r="C21" t="n">
-        <v>365.4</v>
+        <v>369.95</v>
       </c>
     </row>
     <row r="22">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>822.65</v>
+        <v>839.2</v>
       </c>
       <c r="C22" t="n">
-        <v>831.15</v>
+        <v>843.9</v>
       </c>
     </row>
     <row r="23">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>653.75</v>
+        <v>757.55</v>
       </c>
       <c r="C23" t="n">
-        <v>660.7</v>
+        <v>759.3</v>
       </c>
     </row>
     <row r="24">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>943.6</v>
+        <v>993.4</v>
       </c>
       <c r="C24" t="n">
-        <v>947.55</v>
+        <v>985.85</v>
       </c>
     </row>
     <row r="25">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>432.85</v>
+        <v>448.65</v>
       </c>
       <c r="C25" t="n">
-        <v>436.9</v>
+        <v>451.9</v>
       </c>
     </row>
     <row r="26">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>174.25</v>
+        <v>183.15</v>
       </c>
       <c r="C26" t="n">
-        <v>174.9</v>
+        <v>182.56</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -10,12 +10,12 @@
     <sheet name="ltp" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>LTP</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>VEDL</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>ASHOKLEY</t>
+  </si>
+  <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>RECLTD</t>
   </si>
 </sst>
 </file>
@@ -444,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,307 +483,347 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>708.4</v>
+        <v>628.70000000000005</v>
       </c>
       <c r="C2">
-        <v>721.9</v>
+        <v>640.75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3113.6</v>
-      </c>
-      <c r="C3">
-        <v>3147.9</v>
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>7876.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>522.35</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3020.15</v>
       </c>
       <c r="C4">
-        <v>524.35</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1570.1</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>492.35</v>
       </c>
       <c r="C5">
-        <v>1579.6</v>
+        <v>497.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7098.25</v>
-      </c>
-      <c r="C6">
-        <v>7138</v>
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>253.8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>204.47</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1755.65</v>
       </c>
       <c r="C7">
-        <v>204.33</v>
+        <v>1713.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>262.35000000000002</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7063.55</v>
       </c>
       <c r="C8">
-        <v>273.8</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>52560.5</v>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>193.93</v>
       </c>
       <c r="C9">
-        <v>52724.1</v>
+        <v>196.66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>835.7</v>
+        <v>249.8</v>
       </c>
       <c r="C10">
-        <v>832.8</v>
+        <v>249.85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>4754.45</v>
+        <v>51490.75</v>
       </c>
       <c r="C11">
-        <v>4737.3</v>
+        <v>51143.85</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1">
-        <v>4105.05</v>
-      </c>
-      <c r="C12">
-        <v>4130.75</v>
+        <v>13201.9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>188.06</v>
+        <v>831.9</v>
       </c>
       <c r="C13">
-        <v>186.19</v>
+        <v>837.1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>1533.4</v>
+        <v>4915.8999999999996</v>
       </c>
       <c r="C14">
-        <v>1519.4</v>
+        <v>4946.8500000000004</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>697.2</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3816.5</v>
       </c>
       <c r="C15">
-        <v>699.15</v>
+        <v>3854.75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>525</v>
+        <v>195.92</v>
       </c>
       <c r="C16">
-        <v>522.29999999999995</v>
+        <v>195.56</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>1438.05</v>
+        <v>1751.85</v>
       </c>
       <c r="C17">
-        <v>1434.25</v>
+        <v>1719.45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>1025.95</v>
+        <v>700.5</v>
       </c>
       <c r="C18">
-        <v>1050.5</v>
+        <v>705.05</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>782.15</v>
+        <v>543.35</v>
       </c>
       <c r="C19">
-        <v>795.7</v>
+        <v>538.70000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>2851.35</v>
+        <v>1417.45</v>
       </c>
       <c r="C20">
-        <v>2880.6</v>
+        <v>1415.75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>302.8</v>
+        <v>960.5</v>
       </c>
       <c r="C21">
-        <v>300.5</v>
+        <v>968.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <v>23638.9</v>
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>675.95</v>
       </c>
       <c r="C22">
-        <v>24379.4</v>
+        <v>674.9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>377.45</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2757.6</v>
       </c>
       <c r="C23">
-        <v>379.8</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>856.25</v>
+        <v>313.39999999999998</v>
       </c>
       <c r="C24">
-        <v>859.75</v>
+        <v>315.25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>784.1</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>25265.200000000001</v>
       </c>
       <c r="C25">
-        <v>784.55</v>
+        <v>25048.35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1002.6</v>
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>409.9</v>
       </c>
       <c r="C26">
-        <v>993.65</v>
+        <v>409.05</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>433.45</v>
-      </c>
-      <c r="C27">
-        <v>439.95</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>172.28</v>
-      </c>
-      <c r="C28">
-        <v>174.71</v>
+        <v>626.25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>814.5</v>
+      </c>
+      <c r="C29">
+        <v>809.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>809.9</v>
+      </c>
+      <c r="C30">
+        <v>815.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1121.6500000000001</v>
+      </c>
+      <c r="C31">
+        <v>1074.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>430.9</v>
+      </c>
+      <c r="C32">
+        <v>431.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>152.97</v>
+      </c>
+      <c r="C33">
+        <v>153.69999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>465.65</v>
-      </c>
-      <c r="C29">
-        <v>473.85</v>
+      <c r="B34">
+        <v>463.4</v>
+      </c>
+      <c r="C34">
+        <v>466.05</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -10,12 +10,12 @@
     <sheet name="ltp" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>LTP</t>
   </si>
@@ -26,12 +26,18 @@
     <t>AARTIIND</t>
   </si>
   <si>
+    <t>ABB</t>
+  </si>
+  <si>
     <t>ADANI</t>
   </si>
   <si>
     <t>APOLLO</t>
   </si>
   <si>
+    <t>ASHOKLEY</t>
+  </si>
+  <si>
     <t>BAJFINSV</t>
   </si>
   <si>
@@ -41,12 +47,18 @@
     <t>BANBK</t>
   </si>
   <si>
+    <t>BHEL</t>
+  </si>
+  <si>
     <t>BARODA</t>
   </si>
   <si>
     <t>BN</t>
   </si>
   <si>
+    <t>DIXON</t>
+  </si>
+  <si>
     <t>DLF</t>
   </si>
   <si>
@@ -89,6 +101,12 @@
     <t>NTPC</t>
   </si>
   <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>RECLTD</t>
+  </si>
+  <si>
     <t>SBIN</t>
   </si>
   <si>
@@ -105,21 +123,6 @@
   </si>
   <si>
     <t>VEDL</t>
-  </si>
-  <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>ASHOKLEY</t>
-  </si>
-  <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>ONGC</t>
-  </si>
-  <si>
-    <t>RECLTD</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,347 +486,373 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>627.04999999999995</v>
+      </c>
+      <c r="C2">
         <v>628.70000000000005</v>
-      </c>
-      <c r="C2">
-        <v>640.75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B3">
+        <v>7936.05</v>
+      </c>
+      <c r="C3">
         <v>7876.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
+        <v>3019.35</v>
+      </c>
+      <c r="C4">
         <v>3020.15</v>
-      </c>
-      <c r="C4">
-        <v>3028</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
+        <v>492.9</v>
+      </c>
+      <c r="C5">
         <v>492.35</v>
-      </c>
-      <c r="C5">
-        <v>497.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B6">
+        <v>256.45</v>
+      </c>
+      <c r="C6">
         <v>253.8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
+        <v>1783.05</v>
+      </c>
+      <c r="C7">
         <v>1755.65</v>
-      </c>
-      <c r="C7">
-        <v>1713.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
+        <v>7200.15</v>
+      </c>
+      <c r="C8">
         <v>7063.55</v>
-      </c>
-      <c r="C8">
-        <v>6900</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
+        <v>200.3</v>
+      </c>
+      <c r="C9">
         <v>193.93</v>
-      </c>
-      <c r="C9">
-        <v>196.66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>249.8</v>
+        <v>290.55</v>
       </c>
       <c r="C10">
-        <v>249.85</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>51490.75</v>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>250.1</v>
       </c>
       <c r="C11">
-        <v>51143.85</v>
+        <v>249.8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>13201.9</v>
+        <v>51663.1</v>
+      </c>
+      <c r="C12">
+        <v>51490.75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>831.9</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13170.95</v>
       </c>
       <c r="C13">
-        <v>837.1</v>
+        <v>13201.9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4915.8999999999996</v>
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>845.1</v>
       </c>
       <c r="C14">
-        <v>4946.8500000000004</v>
+        <v>831.9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>3816.5</v>
+        <v>4960.5</v>
       </c>
       <c r="C15">
-        <v>3854.75</v>
+        <v>4915.8999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>195.92</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3853.9</v>
       </c>
       <c r="C16">
-        <v>195.56</v>
+        <v>3816.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1751.85</v>
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>194.7</v>
       </c>
       <c r="C17">
-        <v>1719.45</v>
+        <v>195.92</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>700.5</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1753.25</v>
       </c>
       <c r="C18">
-        <v>705.05</v>
+        <v>1751.85</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>543.35</v>
+        <v>701.35</v>
       </c>
       <c r="C19">
-        <v>538.70000000000005</v>
+        <v>700.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1417.45</v>
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>552.79999999999995</v>
       </c>
       <c r="C20">
-        <v>1415.75</v>
+        <v>543.35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>960.5</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1425.25</v>
       </c>
       <c r="C21">
-        <v>968.9</v>
+        <v>1417.45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>675.95</v>
+        <v>970.4</v>
       </c>
       <c r="C22">
-        <v>674.9</v>
+        <v>960.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2757.6</v>
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>674.4</v>
       </c>
       <c r="C23">
-        <v>2798</v>
+        <v>675.95</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>313.39999999999998</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2805.4</v>
       </c>
       <c r="C24">
-        <v>315.25</v>
+        <v>2757.6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1">
-        <v>25265.200000000001</v>
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>314.35000000000002</v>
       </c>
       <c r="C25">
-        <v>25048.35</v>
+        <v>313.39999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>409.9</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25376.9</v>
       </c>
       <c r="C26">
-        <v>409.05</v>
+        <v>25265.200000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>329.6</v>
+        <v>416.2</v>
+      </c>
+      <c r="C27">
+        <v>409.9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>626.25</v>
+        <v>330.75</v>
+      </c>
+      <c r="C28">
+        <v>329.6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>814.5</v>
+        <v>619.75</v>
       </c>
       <c r="C29">
-        <v>809.4</v>
+        <v>626.25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>809.9</v>
+        <v>815.6</v>
       </c>
       <c r="C30">
-        <v>815.25</v>
+        <v>814.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1121.6500000000001</v>
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>821.9</v>
       </c>
       <c r="C31">
-        <v>1074.55</v>
+        <v>809.9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32">
-        <v>430.9</v>
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1111.3499999999999</v>
       </c>
       <c r="C32">
-        <v>431.4</v>
+        <v>1121.6500000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>152.97</v>
+        <v>434.65</v>
       </c>
       <c r="C33">
-        <v>153.69999999999999</v>
+        <v>430.9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B34">
+        <v>152.76</v>
+      </c>
+      <c r="C34">
+        <v>152.97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>468.45</v>
+      </c>
+      <c r="C35">
         <v>463.4</v>
-      </c>
-      <c r="C34">
-        <v>466.05</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +892,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>3147.9</v>
@@ -874,7 +903,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>524.35</v>
@@ -885,7 +914,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>1579.6</v>
@@ -896,7 +925,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>7138</v>
@@ -907,7 +936,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>204.33</v>
@@ -918,7 +947,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>273.8</v>
@@ -929,7 +958,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>52724.1</v>
@@ -940,7 +969,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>832.8</v>
@@ -951,7 +980,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>4737.3</v>
@@ -962,7 +991,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>4130.75</v>
@@ -970,7 +999,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>186.19</v>
@@ -981,7 +1010,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>1519.4</v>
@@ -992,7 +1021,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>699.15</v>
@@ -1003,7 +1032,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>522.29999999999995</v>
@@ -1011,7 +1040,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>1434.25</v>
@@ -1022,7 +1051,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>1050.5</v>
@@ -1033,7 +1062,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>795.7</v>
@@ -1044,7 +1073,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>2880.6</v>
@@ -1055,7 +1084,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>300.5</v>
@@ -1066,7 +1095,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>24379.4</v>
@@ -1077,7 +1106,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>379.8</v>
@@ -1088,7 +1117,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>859.75</v>
@@ -1099,7 +1128,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>784.55</v>
@@ -1110,7 +1139,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
         <v>993.65</v>
@@ -1121,7 +1150,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>439.95</v>
@@ -1132,7 +1161,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>174.71</v>
@@ -1143,7 +1172,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>473.85</v>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>617.05</v>
+        <v>583.4</v>
       </c>
       <c r="C2" t="n">
-        <v>609.6</v>
+        <v>582.45</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7650.1</v>
+        <v>8133.45</v>
       </c>
       <c r="C3" t="n">
-        <v>7639.05</v>
+        <v>8070.4</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3015.35</v>
+        <v>3130.3</v>
       </c>
       <c r="C4" t="n">
-        <v>3012.35</v>
+        <v>3122.65</v>
       </c>
     </row>
     <row r="5">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>512</v>
+        <v>547.55</v>
       </c>
       <c r="C5" t="n">
-        <v>508.7</v>
+        <v>564.25</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251.15</v>
+        <v>239.55</v>
       </c>
       <c r="C6" t="n">
-        <v>250.5</v>
+        <v>241.2</v>
       </c>
     </row>
     <row r="7">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1864.95</v>
+        <v>2010.7</v>
       </c>
       <c r="C7" t="n">
-        <v>1871.9</v>
+        <v>1982.8</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>7244.9</v>
+        <v>7756</v>
       </c>
       <c r="C8" t="n">
-        <v>7299.5</v>
+        <v>7768.4</v>
       </c>
     </row>
     <row r="9">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>203.66</v>
+        <v>203.22</v>
       </c>
       <c r="C9" t="n">
-        <v>199.61</v>
+        <v>205.32</v>
       </c>
     </row>
     <row r="10">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>273.55</v>
+        <v>287.55</v>
       </c>
       <c r="C10" t="n">
-        <v>278.7</v>
+        <v>280.65</v>
       </c>
     </row>
     <row r="11">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.85</v>
+        <v>249.6</v>
       </c>
       <c r="C11" t="n">
-        <v>243.5</v>
+        <v>245.15</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>51727.6</v>
+        <v>54220</v>
       </c>
       <c r="C12" t="n">
-        <v>51607.6</v>
+        <v>54549.05</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>12412.2</v>
+        <v>14037.65</v>
       </c>
       <c r="C13" t="n">
-        <v>12777.85</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="14">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>841.65</v>
+        <v>914.05</v>
       </c>
       <c r="C14" t="n">
-        <v>850.35</v>
+        <v>924</v>
       </c>
     </row>
     <row r="15">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>4800.1</v>
+        <v>5062.6</v>
       </c>
       <c r="C15" t="n">
-        <v>4833.55</v>
+        <v>4994.25</v>
       </c>
     </row>
     <row r="16">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3744.1</v>
+        <v>4328</v>
       </c>
       <c r="C16" t="n">
-        <v>3778</v>
+        <v>4351.35</v>
       </c>
     </row>
     <row r="17">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>189.65</v>
+        <v>193.71</v>
       </c>
       <c r="C17" t="n">
-        <v>187.87</v>
+        <v>192.57</v>
       </c>
     </row>
     <row r="18">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>1790.55</v>
+        <v>1808.4</v>
       </c>
       <c r="C18" t="n">
-        <v>1785.25</v>
+        <v>1783.85</v>
       </c>
     </row>
     <row r="19">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>669.95</v>
+        <v>747.15</v>
       </c>
       <c r="C19" t="n">
-        <v>666.8</v>
+        <v>734.65</v>
       </c>
     </row>
     <row r="20">
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>556</v>
+        <v>549.5</v>
       </c>
       <c r="C20" t="n">
-        <v>549</v>
+        <v>548.9</v>
       </c>
     </row>
     <row r="21">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>1422.9</v>
+        <v>1462.7</v>
       </c>
       <c r="C21" t="n">
-        <v>1434.4</v>
+        <v>1452.7</v>
       </c>
     </row>
     <row r="22">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.5</v>
+        <v>1028.05</v>
       </c>
       <c r="C22" t="n">
-        <v>945.6</v>
+        <v>1028.25</v>
       </c>
     </row>
     <row r="23">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>707.4</v>
+        <v>664</v>
       </c>
       <c r="C23" t="n">
-        <v>691.2</v>
+        <v>666.45</v>
       </c>
     </row>
     <row r="24">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>2723.1</v>
+        <v>3183.65</v>
       </c>
       <c r="C24" t="n">
-        <v>2749.6</v>
+        <v>3181.1</v>
       </c>
     </row>
     <row r="25">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>329.1</v>
+        <v>333.5</v>
       </c>
       <c r="C25" t="n">
-        <v>324.45</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="26">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>25236.75</v>
+        <v>26345.15</v>
       </c>
       <c r="C26" t="n">
-        <v>25247.8</v>
+        <v>26308.85</v>
       </c>
     </row>
     <row r="27">
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>403.25</v>
+        <v>436.9</v>
       </c>
       <c r="C27" t="n">
-        <v>405.1</v>
+        <v>434.6</v>
       </c>
     </row>
     <row r="28">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>311.4</v>
+        <v>297.2</v>
       </c>
       <c r="C28" t="n">
-        <v>314.4</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="29">
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>630.6</v>
+        <v>560.2</v>
       </c>
       <c r="C29" t="n">
-        <v>624.65</v>
+        <v>544.1</v>
       </c>
     </row>
     <row r="30">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>818.75</v>
+        <v>802.65</v>
       </c>
       <c r="C30" t="n">
-        <v>816.5</v>
+        <v>801.85</v>
       </c>
     </row>
     <row r="31">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>796.4</v>
+        <v>835.05</v>
       </c>
       <c r="C31" t="n">
-        <v>806.55</v>
+        <v>833.55</v>
       </c>
     </row>
     <row r="32">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1069.15</v>
+        <v>993</v>
       </c>
       <c r="C32" t="n">
-        <v>1080.45</v>
+        <v>993.15</v>
       </c>
     </row>
     <row r="33">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>420.9</v>
+        <v>485.5</v>
       </c>
       <c r="C33" t="n">
-        <v>420.9</v>
+        <v>476.05</v>
       </c>
     </row>
     <row r="34">
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.72</v>
+        <v>166.55</v>
       </c>
       <c r="C34" t="n">
-        <v>151.18</v>
+        <v>165.61</v>
       </c>
     </row>
     <row r="35">
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>466.7</v>
+        <v>513</v>
       </c>
       <c r="C35" t="n">
-        <v>459.35</v>
+        <v>501.75</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.4</v>
+        <v>587</v>
       </c>
       <c r="C2" t="n">
-        <v>582.45</v>
+        <v>582.95</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8133.45</v>
+        <v>8268.1</v>
       </c>
       <c r="C3" t="n">
-        <v>8070.4</v>
+        <v>8055</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3130.3</v>
+        <v>3186.1</v>
       </c>
       <c r="C4" t="n">
-        <v>3122.65</v>
+        <v>3135.85</v>
       </c>
     </row>
     <row r="5">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.55</v>
+        <v>550.75</v>
       </c>
       <c r="C5" t="n">
-        <v>564.25</v>
+        <v>547.85</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239.55</v>
+        <v>238.13</v>
       </c>
       <c r="C6" t="n">
-        <v>241.2</v>
+        <v>235.4</v>
       </c>
     </row>
     <row r="7">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2010.7</v>
+        <v>1975.25</v>
       </c>
       <c r="C7" t="n">
-        <v>1982.8</v>
+        <v>1973.4</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>7756</v>
+        <v>7703</v>
       </c>
       <c r="C8" t="n">
-        <v>7768.4</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="9">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>203.22</v>
+        <v>195.28</v>
       </c>
       <c r="C9" t="n">
-        <v>205.32</v>
+        <v>198.74</v>
       </c>
     </row>
     <row r="10">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>287.55</v>
+        <v>280.45</v>
       </c>
       <c r="C10" t="n">
-        <v>280.65</v>
+        <v>279.7</v>
       </c>
     </row>
     <row r="11">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>249.6</v>
+        <v>248.91</v>
       </c>
       <c r="C11" t="n">
-        <v>245.15</v>
+        <v>247.8</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>54220</v>
+        <v>53381.2</v>
       </c>
       <c r="C12" t="n">
-        <v>54549.05</v>
+        <v>53435.15</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>14037.65</v>
+        <v>14195.8</v>
       </c>
       <c r="C13" t="n">
-        <v>14100</v>
+        <v>13802.95</v>
       </c>
     </row>
     <row r="14">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>914.05</v>
+        <v>913.75</v>
       </c>
       <c r="C14" t="n">
-        <v>924</v>
+        <v>895.15</v>
       </c>
     </row>
     <row r="15">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>5062.6</v>
+        <v>4972.65</v>
       </c>
       <c r="C15" t="n">
-        <v>4994.25</v>
+        <v>5026.25</v>
       </c>
     </row>
     <row r="16">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>4328</v>
+        <v>4209.2</v>
       </c>
       <c r="C16" t="n">
-        <v>4351.35</v>
+        <v>4268.8</v>
       </c>
     </row>
     <row r="17">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>193.71</v>
+        <v>197.12</v>
       </c>
       <c r="C17" t="n">
-        <v>192.57</v>
+        <v>196.73</v>
       </c>
     </row>
     <row r="18">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>1808.4</v>
+        <v>1816.5</v>
       </c>
       <c r="C18" t="n">
-        <v>1783.85</v>
+        <v>1796.1</v>
       </c>
     </row>
     <row r="19">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.15</v>
+        <v>761.55</v>
       </c>
       <c r="C19" t="n">
-        <v>734.65</v>
+        <v>756.2</v>
       </c>
     </row>
     <row r="20">
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>549.5</v>
+        <v>558.4</v>
       </c>
       <c r="C20" t="n">
-        <v>548.9</v>
+        <v>558.55</v>
       </c>
     </row>
     <row r="21">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>1462.7</v>
+        <v>1409.7</v>
       </c>
       <c r="C21" t="n">
-        <v>1452.7</v>
+        <v>1447.6</v>
       </c>
     </row>
     <row r="22">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1028.05</v>
+        <v>1035.35</v>
       </c>
       <c r="C22" t="n">
-        <v>1028.25</v>
+        <v>1039.65</v>
       </c>
     </row>
     <row r="23">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>664</v>
+        <v>659.25</v>
       </c>
       <c r="C23" t="n">
-        <v>666.45</v>
+        <v>662.45</v>
       </c>
     </row>
     <row r="24">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>3183.65</v>
+        <v>3165.5</v>
       </c>
       <c r="C24" t="n">
-        <v>3181.1</v>
+        <v>3094.9</v>
       </c>
     </row>
     <row r="25">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>333.5</v>
+        <v>330.1</v>
       </c>
       <c r="C25" t="n">
-        <v>340.5</v>
+        <v>338.35</v>
       </c>
     </row>
     <row r="26">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>26345.15</v>
+        <v>25969.25</v>
       </c>
       <c r="C26" t="n">
-        <v>26308.85</v>
+        <v>25990.15</v>
       </c>
     </row>
     <row r="27">
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>436.9</v>
+        <v>440.1</v>
       </c>
       <c r="C27" t="n">
-        <v>434.6</v>
+        <v>443.2</v>
       </c>
     </row>
     <row r="28">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>297.2</v>
+        <v>291.95</v>
       </c>
       <c r="C28" t="n">
-        <v>295.2</v>
+        <v>297.6</v>
       </c>
     </row>
     <row r="29">
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>560.2</v>
+        <v>556.8</v>
       </c>
       <c r="C29" t="n">
-        <v>544.1</v>
+        <v>554.5</v>
       </c>
     </row>
     <row r="30">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>802.65</v>
+        <v>796.95</v>
       </c>
       <c r="C30" t="n">
-        <v>801.85</v>
+        <v>787.9</v>
       </c>
     </row>
     <row r="31">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.05</v>
+        <v>849.65</v>
       </c>
       <c r="C31" t="n">
-        <v>833.55</v>
+        <v>833.1</v>
       </c>
     </row>
     <row r="32">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>993</v>
+        <v>965.2</v>
       </c>
       <c r="C32" t="n">
-        <v>993.15</v>
+        <v>974.65</v>
       </c>
     </row>
     <row r="33">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>485.5</v>
+        <v>481.25</v>
       </c>
       <c r="C33" t="n">
-        <v>476.05</v>
+        <v>482.6</v>
       </c>
     </row>
     <row r="34">
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166.55</v>
+        <v>167.03</v>
       </c>
       <c r="C34" t="n">
-        <v>165.61</v>
+        <v>168.55</v>
       </c>
     </row>
     <row r="35">
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>513</v>
+        <v>516.15</v>
       </c>
       <c r="C35" t="n">
-        <v>501.75</v>
+        <v>512.65</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>587</v>
+        <v>529.2</v>
       </c>
       <c r="C2" t="n">
-        <v>582.95</v>
+        <v>526.95</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8268.1</v>
+        <v>8553.700000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>8055</v>
+        <v>8510.299999999999</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3186.1</v>
+        <v>3137.2</v>
       </c>
       <c r="C4" t="n">
-        <v>3135.85</v>
+        <v>3174.2</v>
       </c>
     </row>
     <row r="5">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>550.75</v>
+        <v>505.05</v>
       </c>
       <c r="C5" t="n">
-        <v>547.85</v>
+        <v>506.3</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238.13</v>
+        <v>227.86</v>
       </c>
       <c r="C6" t="n">
-        <v>235.4</v>
+        <v>225.7</v>
       </c>
     </row>
     <row r="7">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1975.25</v>
+        <v>1876.4</v>
       </c>
       <c r="C7" t="n">
-        <v>1973.4</v>
+        <v>1875.7</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>7703</v>
+        <v>7302</v>
       </c>
       <c r="C8" t="n">
-        <v>7703</v>
+        <v>7319.7</v>
       </c>
     </row>
     <row r="9">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>195.28</v>
+        <v>210.26</v>
       </c>
       <c r="C9" t="n">
-        <v>198.74</v>
+        <v>187.7</v>
       </c>
     </row>
     <row r="10">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>280.45</v>
+        <v>270</v>
       </c>
       <c r="C10" t="n">
-        <v>279.7</v>
+        <v>271.35</v>
       </c>
     </row>
     <row r="11">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>248.91</v>
+        <v>242.42</v>
       </c>
       <c r="C11" t="n">
-        <v>247.8</v>
+        <v>246.05</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>53381.2</v>
+        <v>51386.4</v>
       </c>
       <c r="C12" t="n">
-        <v>53435.15</v>
+        <v>51780.95</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>14195.8</v>
+        <v>15143.65</v>
       </c>
       <c r="C13" t="n">
-        <v>13802.95</v>
+        <v>14933.55</v>
       </c>
     </row>
     <row r="14">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>913.75</v>
+        <v>846.6</v>
       </c>
       <c r="C14" t="n">
-        <v>895.15</v>
+        <v>860.8</v>
       </c>
     </row>
     <row r="15">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>4972.65</v>
+        <v>4728.05</v>
       </c>
       <c r="C15" t="n">
-        <v>5026.25</v>
+        <v>4697.9</v>
       </c>
     </row>
     <row r="16">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>4209.2</v>
+        <v>3937.95</v>
       </c>
       <c r="C16" t="n">
-        <v>4268.8</v>
+        <v>3973.8</v>
       </c>
     </row>
     <row r="17">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>197.12</v>
+        <v>187.55</v>
       </c>
       <c r="C17" t="n">
-        <v>196.73</v>
+        <v>185.68</v>
       </c>
     </row>
     <row r="18">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>1816.5</v>
+        <v>1839.65</v>
       </c>
       <c r="C18" t="n">
-        <v>1796.1</v>
+        <v>1808.65</v>
       </c>
     </row>
     <row r="19">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>761.55</v>
+        <v>747.35</v>
       </c>
       <c r="C19" t="n">
-        <v>756.2</v>
+        <v>730.15</v>
       </c>
     </row>
     <row r="20">
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>558.4</v>
+        <v>540.55</v>
       </c>
       <c r="C20" t="n">
-        <v>558.55</v>
+        <v>540.9</v>
       </c>
     </row>
     <row r="21">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>1409.7</v>
+        <v>1347.6</v>
       </c>
       <c r="C21" t="n">
-        <v>1447.6</v>
+        <v>1356.4</v>
       </c>
     </row>
     <row r="22">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1035.35</v>
+        <v>1005.85</v>
       </c>
       <c r="C22" t="n">
-        <v>1039.65</v>
+        <v>990.75</v>
       </c>
     </row>
     <row r="23">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>659.25</v>
+        <v>619.5</v>
       </c>
       <c r="C23" t="n">
-        <v>662.45</v>
+        <v>616.1</v>
       </c>
     </row>
     <row r="24">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>3165.5</v>
+        <v>3134.35</v>
       </c>
       <c r="C24" t="n">
-        <v>3094.9</v>
+        <v>3194.3</v>
       </c>
     </row>
     <row r="25">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>330.1</v>
+        <v>284.05</v>
       </c>
       <c r="C25" t="n">
-        <v>338.35</v>
+        <v>284.45</v>
       </c>
     </row>
     <row r="26">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>25969.25</v>
+        <v>25049.55</v>
       </c>
       <c r="C26" t="n">
-        <v>25990.15</v>
+        <v>25117.9</v>
       </c>
     </row>
     <row r="27">
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>440.1</v>
+        <v>422.5</v>
       </c>
       <c r="C27" t="n">
-        <v>443.2</v>
+        <v>422.7</v>
       </c>
     </row>
     <row r="28">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>291.95</v>
+        <v>292.55</v>
       </c>
       <c r="C28" t="n">
-        <v>297.6</v>
+        <v>288.75</v>
       </c>
     </row>
     <row r="29">
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>556.8</v>
+        <v>537.9</v>
       </c>
       <c r="C29" t="n">
-        <v>554.5</v>
+        <v>544.25</v>
       </c>
     </row>
     <row r="30">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>796.95</v>
+        <v>799.75</v>
       </c>
       <c r="C30" t="n">
-        <v>787.9</v>
+        <v>797.1</v>
       </c>
     </row>
     <row r="31">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.65</v>
+        <v>783.85</v>
       </c>
       <c r="C31" t="n">
-        <v>833.1</v>
+        <v>790.65</v>
       </c>
     </row>
     <row r="32">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>965.2</v>
+        <v>930.7</v>
       </c>
       <c r="C32" t="n">
-        <v>974.65</v>
+        <v>928.5</v>
       </c>
     </row>
     <row r="33">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>481.25</v>
+        <v>461.15</v>
       </c>
       <c r="C33" t="n">
-        <v>482.6</v>
+        <v>465.65</v>
       </c>
     </row>
     <row r="34">
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.03</v>
+        <v>160.66</v>
       </c>
       <c r="C34" t="n">
-        <v>168.55</v>
+        <v>159.72</v>
       </c>
     </row>
     <row r="35">
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>516.15</v>
+        <v>497.5</v>
       </c>
       <c r="C35" t="n">
-        <v>512.65</v>
+        <v>492.5</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>529.2</v>
+        <v>539</v>
       </c>
       <c r="C2" t="n">
-        <v>526.95</v>
+        <v>533.3</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8553.700000000001</v>
+        <v>8648.299999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>8510.299999999999</v>
+        <v>8570.5</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3137.2</v>
+        <v>3104.7</v>
       </c>
       <c r="C4" t="n">
-        <v>3174.2</v>
+        <v>3101.1</v>
       </c>
     </row>
     <row r="5">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505.05</v>
+        <v>515</v>
       </c>
       <c r="C5" t="n">
-        <v>506.3</v>
+        <v>503.55</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227.86</v>
+        <v>226.3</v>
       </c>
       <c r="C6" t="n">
-        <v>225.7</v>
+        <v>228.71</v>
       </c>
     </row>
     <row r="7">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1876.4</v>
+        <v>1853.95</v>
       </c>
       <c r="C7" t="n">
-        <v>1875.7</v>
+        <v>1867.2</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>7302</v>
+        <v>7016.9</v>
       </c>
       <c r="C8" t="n">
-        <v>7319.7</v>
+        <v>7208.8</v>
       </c>
     </row>
     <row r="9">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>210.26</v>
+        <v>194.35</v>
       </c>
       <c r="C9" t="n">
-        <v>187.7</v>
+        <v>200.06</v>
       </c>
     </row>
     <row r="10">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>270</v>
+        <v>271.6</v>
       </c>
       <c r="C10" t="n">
-        <v>271.35</v>
+        <v>268.75</v>
       </c>
     </row>
     <row r="11">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242.42</v>
+        <v>243.81</v>
       </c>
       <c r="C11" t="n">
-        <v>246.05</v>
+        <v>244.55</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>51386.4</v>
+        <v>52106.85</v>
       </c>
       <c r="C12" t="n">
-        <v>51780.95</v>
+        <v>52042.75</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>15143.65</v>
+        <v>15404.45</v>
       </c>
       <c r="C13" t="n">
-        <v>14933.55</v>
+        <v>15265.05</v>
       </c>
     </row>
     <row r="14">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>846.6</v>
+        <v>875.45</v>
       </c>
       <c r="C14" t="n">
-        <v>860.8</v>
+        <v>862.9</v>
       </c>
     </row>
     <row r="15">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>4728.05</v>
+        <v>4722.1</v>
       </c>
       <c r="C15" t="n">
-        <v>4697.9</v>
+        <v>4779.8</v>
       </c>
     </row>
     <row r="16">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3937.95</v>
+        <v>3932</v>
       </c>
       <c r="C16" t="n">
-        <v>3973.8</v>
+        <v>3965.7</v>
       </c>
     </row>
     <row r="17">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>187.55</v>
+        <v>198.62</v>
       </c>
       <c r="C17" t="n">
-        <v>185.68</v>
+        <v>196.74</v>
       </c>
     </row>
     <row r="18">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>1839.65</v>
+        <v>1870.1</v>
       </c>
       <c r="C18" t="n">
-        <v>1808.65</v>
+        <v>1855.9</v>
       </c>
     </row>
     <row r="19">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.35</v>
+        <v>726.95</v>
       </c>
       <c r="C19" t="n">
-        <v>730.15</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20">
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>540.55</v>
+        <v>524.65</v>
       </c>
       <c r="C20" t="n">
-        <v>540.9</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>1347.6</v>
+        <v>1360.9</v>
       </c>
       <c r="C21" t="n">
-        <v>1356.4</v>
+        <v>1370.45</v>
       </c>
     </row>
     <row r="22">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1005.85</v>
+        <v>968.7</v>
       </c>
       <c r="C22" t="n">
-        <v>990.75</v>
+        <v>993.15</v>
       </c>
     </row>
     <row r="23">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>619.5</v>
+        <v>625.95</v>
       </c>
       <c r="C23" t="n">
-        <v>616.1</v>
+        <v>617.75</v>
       </c>
     </row>
     <row r="24">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>3134.35</v>
+        <v>3155.8</v>
       </c>
       <c r="C24" t="n">
-        <v>3194.3</v>
+        <v>3154.9</v>
       </c>
     </row>
     <row r="25">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>284.05</v>
+        <v>286.4</v>
       </c>
       <c r="C25" t="n">
-        <v>284.45</v>
+        <v>283.25</v>
       </c>
     </row>
     <row r="26">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>25049.55</v>
+        <v>25118.35</v>
       </c>
       <c r="C26" t="n">
-        <v>25117.9</v>
+        <v>25221.5</v>
       </c>
     </row>
     <row r="27">
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>422.5</v>
+        <v>426.6</v>
       </c>
       <c r="C27" t="n">
-        <v>422.7</v>
+        <v>424.5</v>
       </c>
     </row>
     <row r="28">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>292.55</v>
+        <v>283.7</v>
       </c>
       <c r="C28" t="n">
-        <v>288.75</v>
+        <v>286.5</v>
       </c>
     </row>
     <row r="29">
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>537.9</v>
+        <v>547.3</v>
       </c>
       <c r="C29" t="n">
-        <v>544.25</v>
+        <v>540.35</v>
       </c>
     </row>
     <row r="30">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>799.75</v>
+        <v>804.65</v>
       </c>
       <c r="C30" t="n">
-        <v>797.1</v>
+        <v>805.15</v>
       </c>
     </row>
     <row r="31">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.85</v>
+        <v>778.9</v>
       </c>
       <c r="C31" t="n">
-        <v>790.65</v>
+        <v>787.3</v>
       </c>
     </row>
     <row r="32">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>930.7</v>
+        <v>917.3</v>
       </c>
       <c r="C32" t="n">
-        <v>928.5</v>
+        <v>928.25</v>
       </c>
     </row>
     <row r="33">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>461.15</v>
+        <v>463.5</v>
       </c>
       <c r="C33" t="n">
-        <v>465.65</v>
+        <v>462.3</v>
       </c>
     </row>
     <row r="34">
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>160.66</v>
+        <v>155.63</v>
       </c>
       <c r="C34" t="n">
-        <v>159.72</v>
+        <v>158.32</v>
       </c>
     </row>
     <row r="35">
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>497.5</v>
+        <v>489.85</v>
       </c>
       <c r="C35" t="n">
-        <v>492.5</v>
+        <v>499.15</v>
       </c>
     </row>
   </sheetData>

--- a/ltp prev.xlsx
+++ b/ltp prev.xlsx
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>539</v>
+        <v>524.25</v>
       </c>
       <c r="C2" t="n">
-        <v>533.3</v>
+        <v>520.85</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8648.299999999999</v>
+        <v>8783</v>
       </c>
       <c r="C3" t="n">
-        <v>8570.5</v>
+        <v>8690.700000000001</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3104.7</v>
+        <v>3002</v>
       </c>
       <c r="C4" t="n">
-        <v>3101.1</v>
+        <v>3013.75</v>
       </c>
     </row>
     <row r="5">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515</v>
+        <v>505.75</v>
       </c>
       <c r="C5" t="n">
-        <v>503.55</v>
+        <v>504.25</v>
       </c>
     </row>
     <row r="6">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>226.3</v>
+        <v>223.28</v>
       </c>
       <c r="C6" t="n">
-        <v>228.71</v>
+        <v>219.56</v>
       </c>
     </row>
     <row r="7">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1853.95</v>
+        <v>1819.9</v>
       </c>
       <c r="C7" t="n">
-        <v>1867.2</v>
+        <v>1815.8</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>7016.9</v>
+        <v>6899.55</v>
       </c>
       <c r="C8" t="n">
-        <v>7208.8</v>
+        <v>6899.5</v>
       </c>
     </row>
     <row r="9">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.35</v>
+        <v>191.96</v>
       </c>
       <c r="C9" t="n">
-        <v>200.06</v>
+        <v>190.19</v>
       </c>
     </row>
     <row r="10">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>271.6</v>
+        <v>253.85</v>
       </c>
       <c r="C10" t="n">
-        <v>268.75</v>
+        <v>254.2</v>
       </c>
     </row>
     <row r="11">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.81</v>
+        <v>247.97</v>
       </c>
       <c r="C11" t="n">
-        <v>244.55</v>
+        <v>241.96</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>52106.85</v>
+        <v>52310.4</v>
       </c>
       <c r="C12" t="n">
-        <v>52042.75</v>
+        <v>51491.7</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>15404.45</v>
+        <v>15381.8</v>
       </c>
       <c r="C13" t="n">
-        <v>15265.05</v>
+        <v>15130.85</v>
       </c>
     </row>
     <row r="14">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>875.45</v>
+        <v>875.15</v>
       </c>
       <c r="C14" t="n">
-        <v>862.9</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>4722.1</v>
+        <v>4765.65</v>
       </c>
       <c r="C15" t="n">
-        <v>4779.8</v>
+        <v>4623.85</v>
       </c>
     </row>
     <row r="16">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3932</v>
+        <v>3815.4</v>
       </c>
       <c r="C16" t="n">
-        <v>3965.7</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="17">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>198.62</v>
+        <v>195.3</v>
       </c>
       <c r="C17" t="n">
-        <v>196.74</v>
+        <v>193.61</v>
       </c>
     </row>
     <row r="18">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>1870.1</v>
+        <v>1857.7</v>
       </c>
       <c r="C18" t="n">
-        <v>1855.9</v>
+        <v>1867.8</v>
       </c>
     </row>
     <row r="19">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.95</v>
+        <v>753.5</v>
       </c>
       <c r="C19" t="n">
-        <v>743</v>
+        <v>734.8</v>
       </c>
     </row>
     <row r="20">
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>524.65</v>
+        <v>451.7</v>
       </c>
       <c r="C20" t="n">
-        <v>518</v>
+        <v>504.55</v>
       </c>
     </row>
     <row r="21">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>1360.9</v>
+        <v>1347.25</v>
       </c>
       <c r="C21" t="n">
-        <v>1370.45</v>
+        <v>1347.35</v>
       </c>
     </row>
     <row r="22">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>968.7</v>
+        <v>964.5</v>
       </c>
       <c r="C22" t="n">
-        <v>993.15</v>
+        <v>930</v>
       </c>
     </row>
     <row r="23">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>625.95</v>
+        <v>618.6</v>
       </c>
       <c r="C23" t="n">
-        <v>617.75</v>
+        <v>611.8</v>
       </c>
     </row>
     <row r="24">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>3155.8</v>
+        <v>2964.25</v>
       </c>
       <c r="C24" t="n">
-        <v>3154.9</v>
+        <v>2964.6</v>
       </c>
     </row>
     <row r="25">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>286.4</v>
+        <v>291</v>
       </c>
       <c r="C25" t="n">
-        <v>283.25</v>
+        <v>282.15</v>
       </c>
     </row>
     <row r="26">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>25118.35</v>
+        <v>24949.15</v>
       </c>
       <c r="C26" t="n">
-        <v>25221.5</v>
+        <v>24843.8</v>
       </c>
     </row>
     <row r="27">
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>426.6</v>
+        <v>424.95</v>
       </c>
       <c r="C27" t="n">
-        <v>424.5</v>
+        <v>417.75</v>
       </c>
     </row>
     <row r="28">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>283.7</v>
+        <v>283.3</v>
       </c>
       <c r="C28" t="n">
-        <v>286.5</v>
+        <v>281.6</v>
       </c>
     </row>
     <row r="29">
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>547.3</v>
+        <v>546.25</v>
       </c>
       <c r="C29" t="n">
-        <v>540.35</v>
+        <v>542.35</v>
       </c>
     </row>
     <row r="30">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>804.65</v>
+        <v>820.4</v>
       </c>
       <c r="C30" t="n">
-        <v>805.15</v>
+        <v>811.05</v>
       </c>
     </row>
     <row r="31">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>778.9</v>
+        <v>759.95</v>
       </c>
       <c r="C31" t="n">
-        <v>787.3</v>
+        <v>765.1</v>
       </c>
     </row>
     <row r="32">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>917.3</v>
+        <v>910.15</v>
       </c>
       <c r="C32" t="n">
-        <v>928.25</v>
+        <v>891.6</v>
       </c>
     </row>
     <row r="33">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>463.5</v>
+        <v>453.55</v>
       </c>
       <c r="C33" t="n">
-        <v>462.3</v>
+        <v>450.2</v>
       </c>
     </row>
     <row r="34">
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.63</v>
+        <v>155.39</v>
       </c>
       <c r="C34" t="n">
-        <v>158.32</v>
+        <v>152.4</v>
       </c>
     </row>
     <row r="35">
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>489.85</v>
+        <v>480.85</v>
       </c>
       <c r="C35" t="n">
-        <v>499.15</v>
+        <v>472.15</v>
       </c>
     </row>
   </sheetData>
